--- a/datum.xlsx
+++ b/datum.xlsx
@@ -1245,37 +1245,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.145917034651798</v>
+        <v>0.1711187286461251</v>
       </c>
       <c r="C19" t="n">
-        <v>3.32714013126109</v>
+        <v>1.479661370259952</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2758826429962485</v>
+        <v>0.5968365312299273</v>
       </c>
       <c r="E19" t="n">
-        <v>1.792839626205057</v>
+        <v>1.660070930219505</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9798949791262451</v>
+        <v>0.6001611426791664</v>
       </c>
       <c r="G19" t="n">
-        <v>1.928337859409825</v>
+        <v>0.8946187279819188</v>
       </c>
       <c r="H19" t="n">
-        <v>1.301061668949251</v>
+        <v>0.6099456571245985</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.1718526940419031</v>
+        <v>1.273225337911735</v>
       </c>
       <c r="J19" t="n">
-        <v>2.550516773010071</v>
+        <v>1.139069598386319</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1370200621364109</v>
+        <v>0.9847790262114282</v>
       </c>
       <c r="L19" t="n">
-        <v>1.351138933858146</v>
+        <v>1.181895411666227</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -1290,37 +1290,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.750887409654047</v>
+        <v>5.769543203772694</v>
       </c>
       <c r="C20" t="n">
-        <v>7.166553778315286</v>
+        <v>7.806055888653558</v>
       </c>
       <c r="D20" t="n">
-        <v>9.468664682190953</v>
+        <v>8.725095663383554</v>
       </c>
       <c r="E20" t="n">
-        <v>13.01909484450519</v>
+        <v>8.166637408037927</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5457212372751732</v>
+        <v>1.954815722025322</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.05068097640303</v>
+        <v>6.253383230785617</v>
       </c>
       <c r="H20" t="n">
-        <v>-30.28378891316559</v>
+        <v>6.670923006508235</v>
       </c>
       <c r="I20" t="n">
-        <v>-28.64737308053524</v>
+        <v>2.685171819930346</v>
       </c>
       <c r="J20" t="n">
-        <v>-8.337373530474002</v>
+        <v>3.519449172459996</v>
       </c>
       <c r="K20" t="n">
-        <v>-53.30107842241252</v>
+        <v>9.421698309440448</v>
       </c>
       <c r="L20" t="n">
-        <v>-9.676613504341169</v>
+        <v>6.160335544846625</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -1335,37 +1335,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.101148902354073</v>
+        <v>1.416977024699331</v>
       </c>
       <c r="C21" t="n">
-        <v>2.225072186920324</v>
+        <v>1.396069202509843</v>
       </c>
       <c r="D21" t="n">
-        <v>2.320498495386404</v>
+        <v>0.5362277818580234</v>
       </c>
       <c r="E21" t="n">
-        <v>2.384053767263171</v>
+        <v>1.500457426013555</v>
       </c>
       <c r="F21" t="n">
-        <v>1.513357004560039</v>
+        <v>0.3317585606124503</v>
       </c>
       <c r="G21" t="n">
-        <v>1.541799004519303</v>
+        <v>1.285899775443403</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.07374474896348274</v>
+        <v>0.5095606982572567</v>
       </c>
       <c r="I21" t="n">
-        <v>1.185449549369339</v>
+        <v>0.9709228193244481</v>
       </c>
       <c r="J21" t="n">
-        <v>1.349162496660553</v>
+        <v>1.09736215738918</v>
       </c>
       <c r="K21" t="n">
-        <v>-5.704729176012821</v>
+        <v>2.18939699579706</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.1222227118488139</v>
+        <v>2.056568549441689</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -1380,37 +1380,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2646431639176834</v>
+        <v>2.163858871586886</v>
       </c>
       <c r="C22" t="n">
-        <v>3.007902364070289</v>
+        <v>4.045347700057139</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.351280884555045</v>
+        <v>2.746766505988681</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.9202535936911785</v>
+        <v>4.300887606906226</v>
       </c>
       <c r="F22" t="n">
-        <v>-6.157363796191953</v>
+        <v>-0.6859522980981911</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.517226890637611</v>
+        <v>1.632950452198185</v>
       </c>
       <c r="H22" t="n">
-        <v>-7.870469125533558</v>
+        <v>-1.65903054874466</v>
       </c>
       <c r="I22" t="n">
-        <v>-5.141995462046248</v>
+        <v>-2.063487036856574</v>
       </c>
       <c r="J22" t="n">
-        <v>-6.306787005827895</v>
+        <v>2.369901847985064</v>
       </c>
       <c r="K22" t="n">
-        <v>-22.16707704628178</v>
+        <v>-1.355053590465174</v>
       </c>
       <c r="L22" t="n">
-        <v>0.9683324792963972</v>
+        <v>1.747397066026373</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -1425,37 +1425,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.471929874909731</v>
+        <v>0.9621608758289321</v>
       </c>
       <c r="C23" t="n">
-        <v>4.557280298728837</v>
+        <v>0.9552813304333665</v>
       </c>
       <c r="D23" t="n">
-        <v>4.268098851130692</v>
+        <v>0.217401633454298</v>
       </c>
       <c r="E23" t="n">
-        <v>4.269286933631051</v>
+        <v>0.7574403162820839</v>
       </c>
       <c r="F23" t="n">
-        <v>2.404237480349325</v>
+        <v>0.4171063753236253</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6362729345738497</v>
+        <v>0.1020675785011989</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.5157181120971435</v>
+        <v>1.083120995207956</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1783786490448266</v>
+        <v>0.6434529242447266</v>
       </c>
       <c r="J23" t="n">
-        <v>1.837617767162565</v>
+        <v>0.7378318745844128</v>
       </c>
       <c r="K23" t="n">
-        <v>0.09970598576748023</v>
+        <v>0.4243728002948182</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3501979920514811</v>
+        <v>0.2645957614184328</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1470,37 +1470,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.449637700066933</v>
+        <v>3.304791266670439</v>
       </c>
       <c r="C24" t="n">
-        <v>1.856527966149091</v>
+        <v>4.335866925695472</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9554180341262745</v>
+        <v>3.590125023167886</v>
       </c>
       <c r="E24" t="n">
-        <v>2.277124960637215</v>
+        <v>3.517060905029092</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8892795901576921</v>
+        <v>2.69256104925658</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.5186391816914332</v>
+        <v>3.47185252807544</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.710544323835023</v>
+        <v>2.298614626452292</v>
       </c>
       <c r="I24" t="n">
-        <v>-3.939404817126539</v>
+        <v>2.234936122260931</v>
       </c>
       <c r="J24" t="n">
-        <v>-3.24050360963874</v>
+        <v>2.594656646762874</v>
       </c>
       <c r="K24" t="n">
-        <v>-15.02012462330679</v>
+        <v>1.249194429328715</v>
       </c>
       <c r="L24" t="n">
-        <v>-2.770792108742622</v>
+        <v>3.567322067620187</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -1515,37 +1515,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.5032929618577635</v>
+        <v>1.07087791564517</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5428985115374874</v>
+        <v>0.702529256301122</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2394949702500661</v>
+        <v>0.3337265602783161</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6660916079945752</v>
+        <v>0.7272118170983471</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.2023687080905323</v>
+        <v>0.2633300103645936</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02875181651581202</v>
+        <v>0.4702389787004937</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.8259652900495762</v>
+        <v>0.3108631753027564</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.8918662293011183</v>
+        <v>0.3191180121944417</v>
       </c>
       <c r="J25" t="n">
-        <v>-7.452663203542342</v>
+        <v>0.4321794423586383</v>
       </c>
       <c r="K25" t="n">
-        <v>-3.466744606483469</v>
+        <v>0.261168112929731</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.6661890051447248</v>
+        <v>0.6009891932073009</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1560,37 +1560,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4665052536092437</v>
+        <v>2.740703203760038</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.049492455018468</v>
+        <v>2.410088849799877</v>
       </c>
       <c r="D26" t="n">
-        <v>-5.017291880845995</v>
+        <v>1.373726122929253</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.9776840636524792</v>
+        <v>2.678579527782915</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.919216829489084</v>
+        <v>0.7946098204527675</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.617917921260468</v>
+        <v>2.406134892839961</v>
       </c>
       <c r="H26" t="n">
-        <v>-10.43450537107942</v>
+        <v>1.395728305617205</v>
       </c>
       <c r="I26" t="n">
-        <v>-7.733012074903746</v>
+        <v>0.05552900932416156</v>
       </c>
       <c r="J26" t="n">
-        <v>-9.917943737266652</v>
+        <v>-0.08403641859014237</v>
       </c>
       <c r="K26" t="n">
-        <v>-29.35465831796609</v>
+        <v>-0.09378465488707868</v>
       </c>
       <c r="L26" t="n">
-        <v>-10.02508714601445</v>
+        <v>2.00804483563355</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -1605,37 +1605,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.2763711259024986</v>
+        <v>2.535801825975505</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.09154849099339318</v>
+        <v>2.778239721651764</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.020235981001119</v>
+        <v>-0.4956395338027511</v>
       </c>
       <c r="E27" t="n">
-        <v>0.949804206263263</v>
+        <v>3.431999467818822</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.794763713577197</v>
+        <v>-1.247884633119318</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.931820100180146</v>
+        <v>2.873813178387662</v>
       </c>
       <c r="H27" t="n">
-        <v>-10.91511045951329</v>
+        <v>-1.101544049696398</v>
       </c>
       <c r="I27" t="n">
-        <v>-16.20794478383693</v>
+        <v>-1.570401568818908</v>
       </c>
       <c r="J27" t="n">
-        <v>-9.842947038744624</v>
+        <v>-2.161086144719178</v>
       </c>
       <c r="K27" t="n">
-        <v>-16.53855310027106</v>
+        <v>-4.04857296057258</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.496633049635443</v>
+        <v>-0.06819809443606412</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -1650,37 +1650,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.926810215021934</v>
+        <v>7.344899382094932</v>
       </c>
       <c r="C28" t="n">
-        <v>2.216958790688783</v>
+        <v>6.823006341393137</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.5271554254851365</v>
+        <v>7.438216252017117</v>
       </c>
       <c r="E28" t="n">
-        <v>3.419281741665241</v>
+        <v>8.095264503154645</v>
       </c>
       <c r="F28" t="n">
-        <v>-8.727462516578427</v>
+        <v>2.587917442432426</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.507430887970428</v>
+        <v>3.96255688540512</v>
       </c>
       <c r="H28" t="n">
-        <v>-4.984106095700698</v>
+        <v>3.552413190886525</v>
       </c>
       <c r="I28" t="n">
-        <v>-13.69257647022573</v>
+        <v>4.287082810280917</v>
       </c>
       <c r="J28" t="n">
-        <v>-17.62753556269552</v>
+        <v>8.194572246938291</v>
       </c>
       <c r="K28" t="n">
-        <v>-55.51375634043821</v>
+        <v>4.808418065965503</v>
       </c>
       <c r="L28" t="n">
-        <v>-15.10911639665343</v>
+        <v>5.027231239104863</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -1695,37 +1695,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-16.36096421839089</v>
+        <v>1.165328878625602</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.861637686468494</v>
+        <v>9.072259063682115</v>
       </c>
       <c r="D29" t="n">
-        <v>-9.964473389365313</v>
+        <v>-2.185282398354337</v>
       </c>
       <c r="E29" t="n">
-        <v>1.612346326212114</v>
+        <v>8.528926102339259</v>
       </c>
       <c r="F29" t="n">
-        <v>-9.016071391774938</v>
+        <v>-0.8087792643623821</v>
       </c>
       <c r="G29" t="n">
-        <v>2.265648223418847</v>
+        <v>8.336872274421193</v>
       </c>
       <c r="H29" t="n">
-        <v>-13.54371407664382</v>
+        <v>2.261367401027963</v>
       </c>
       <c r="I29" t="n">
-        <v>-16.85355697723456</v>
+        <v>-6.103253550628307</v>
       </c>
       <c r="J29" t="n">
-        <v>-14.92056478216368</v>
+        <v>-6.993892833133105</v>
       </c>
       <c r="K29" t="n">
-        <v>-62.63207512800797</v>
+        <v>-16.22844455140207</v>
       </c>
       <c r="L29" t="n">
-        <v>-25.74687654352314</v>
+        <v>1.27278143360811</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -1740,37 +1740,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-9.223277123422589</v>
+        <v>22.66618347022819</v>
       </c>
       <c r="C30" t="n">
-        <v>-5.938866692210705</v>
+        <v>37.35392044760384</v>
       </c>
       <c r="D30" t="n">
-        <v>-8.281547872260656</v>
+        <v>27.59207571345004</v>
       </c>
       <c r="E30" t="n">
-        <v>-4.597333602383123</v>
+        <v>25.03309016358937</v>
       </c>
       <c r="F30" t="n">
-        <v>-10.22949325250602</v>
+        <v>32.50248923622133</v>
       </c>
       <c r="G30" t="n">
-        <v>-12.47586697892378</v>
+        <v>29.16643949985344</v>
       </c>
       <c r="H30" t="n">
-        <v>-14.3282490850304</v>
+        <v>41.43649730481287</v>
       </c>
       <c r="I30" t="n">
-        <v>-18.99629391594754</v>
+        <v>33.23774030381565</v>
       </c>
       <c r="J30" t="n">
-        <v>-15.78671013319935</v>
+        <v>33.8347970798855</v>
       </c>
       <c r="K30" t="n">
-        <v>-68.13734443062673</v>
+        <v>40.99447689188977</v>
       </c>
       <c r="L30" t="n">
-        <v>-29.92677584551436</v>
+        <v>47.20769847199244</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -1785,37 +1785,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.259028459032473</v>
+        <v>1.202871921903253</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.955052662529171</v>
+        <v>2.430764198256486</v>
       </c>
       <c r="D31" t="n">
-        <v>-2.797485031176703</v>
+        <v>-0.4533583304288205</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.377230815497</v>
+        <v>2.16680152633388</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.350668165246916</v>
+        <v>0.1905501294692592</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.005932966276518</v>
+        <v>1.425097441581259</v>
       </c>
       <c r="H31" t="n">
-        <v>-4.069315705788294</v>
+        <v>0.9893535386219161</v>
       </c>
       <c r="I31" t="n">
-        <v>-2.74170671029023</v>
+        <v>0.5743762930596444</v>
       </c>
       <c r="J31" t="n">
-        <v>-4.150295847054875</v>
+        <v>0.461653476890835</v>
       </c>
       <c r="K31" t="n">
-        <v>-14.25249375879774</v>
+        <v>-0.3856915489424627</v>
       </c>
       <c r="L31" t="n">
-        <v>-5.116271773719481</v>
+        <v>1.687889347887287</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -1830,37 +1830,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.08712901846475</v>
+        <v>1.171485089063912</v>
       </c>
       <c r="C32" t="n">
-        <v>2.500550110912935</v>
+        <v>1.405877444051205</v>
       </c>
       <c r="D32" t="n">
-        <v>1.067548030569957</v>
+        <v>1.891200601889397</v>
       </c>
       <c r="E32" t="n">
-        <v>1.204121333760191</v>
+        <v>1.848170908725017</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8750770619304382</v>
+        <v>1.212022469398994</v>
       </c>
       <c r="G32" t="n">
-        <v>1.044969461254777</v>
+        <v>1.747485987185097</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2179597439541224</v>
+        <v>1.944945943795859</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.575967119203824</v>
+        <v>0.8529198989929087</v>
       </c>
       <c r="J32" t="n">
-        <v>1.471789612198223</v>
+        <v>1.91715040636681</v>
       </c>
       <c r="K32" t="n">
-        <v>-3.315900056463964</v>
+        <v>3.190726741599844</v>
       </c>
       <c r="L32" t="n">
-        <v>-5.582078931704789</v>
+        <v>2.671102620332133</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -1875,37 +1875,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.121303023718366</v>
+        <v>1.572962339006843</v>
       </c>
       <c r="C33" t="n">
-        <v>5.440348302900221</v>
+        <v>1.788656628320496</v>
       </c>
       <c r="D33" t="n">
-        <v>5.61653874940119</v>
+        <v>0.01757590944049844</v>
       </c>
       <c r="E33" t="n">
-        <v>6.160048756949219</v>
+        <v>1.855833583626091</v>
       </c>
       <c r="F33" t="n">
-        <v>5.564602598402749</v>
+        <v>0.7422426006269824</v>
       </c>
       <c r="G33" t="n">
-        <v>5.177777537514343</v>
+        <v>1.246039470126883</v>
       </c>
       <c r="H33" t="n">
-        <v>4.177042430246735</v>
+        <v>1.364217833095822</v>
       </c>
       <c r="I33" t="n">
-        <v>3.090143561532254</v>
+        <v>0.6462885539215457</v>
       </c>
       <c r="J33" t="n">
-        <v>2.528049817578818</v>
+        <v>1.006046910635624</v>
       </c>
       <c r="K33" t="n">
-        <v>-1.778302856290576</v>
+        <v>1.709377194753242</v>
       </c>
       <c r="L33" t="n">
-        <v>3.116009781966543</v>
+        <v>1.992784773471506</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -1920,37 +1920,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-8.675368226228365</v>
+        <v>9.378875831058945</v>
       </c>
       <c r="C34" t="n">
-        <v>-10.68786903552141</v>
+        <v>7.236955487533443</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.663516311157475</v>
+        <v>4.618994407000261</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.812357946265645</v>
+        <v>4.453981792816455</v>
       </c>
       <c r="F34" t="n">
-        <v>-6.096512835416458</v>
+        <v>3.476215007180006</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.455177727127054</v>
+        <v>2.316264034720039</v>
       </c>
       <c r="H34" t="n">
-        <v>-5.17373339953791</v>
+        <v>1.739965302947067</v>
       </c>
       <c r="I34" t="n">
-        <v>-3.898105373383154</v>
+        <v>2.866139518865</v>
       </c>
       <c r="J34" t="n">
-        <v>-5.552439119210923</v>
+        <v>2.308263398165245</v>
       </c>
       <c r="K34" t="n">
-        <v>-13.85555951080314</v>
+        <v>3.383153279614667</v>
       </c>
       <c r="L34" t="n">
-        <v>-3.101142844291355</v>
+        <v>5.226644060703094</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -1965,37 +1965,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.03822351892524775</v>
+        <v>1.23191125038019</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8743583141317642</v>
+        <v>3.120393925575963</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.804917178523191</v>
+        <v>-0.1426727909591457</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.3810510016106399</v>
+        <v>0.8582454250870323</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.508701626518111</v>
+        <v>0.1415324821047219</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.8612415161690895</v>
+        <v>0.6298554872539639</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.8420462020640608</v>
+        <v>-0.04740601589589506</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.5020535656290646</v>
+        <v>0.4043801097058793</v>
       </c>
       <c r="J35" t="n">
-        <v>1.393648883111138</v>
+        <v>0.6132294496744227</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.2848636626147</v>
+        <v>0.9031826179665535</v>
       </c>
       <c r="L35" t="n">
-        <v>0.1784892983292676</v>
+        <v>1.185003047366457</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>

--- a/datum.xlsx
+++ b/datum.xlsx
@@ -5584,39 +5584,17 @@
           <t>A</t>
         </is>
       </c>
-      <c r="B104" t="n">
-        <v>52.0592101321072</v>
-      </c>
-      <c r="C104" t="n">
-        <v>56.35755709167909</v>
-      </c>
-      <c r="D104" t="n">
-        <v>52.31699936272042</v>
-      </c>
-      <c r="E104" t="n">
-        <v>50.0275953310401</v>
-      </c>
-      <c r="F104" t="n">
-        <v>47.69806250814264</v>
-      </c>
-      <c r="G104" t="n">
-        <v>48.44104429034095</v>
-      </c>
-      <c r="H104" t="n">
-        <v>49.12645048333938</v>
-      </c>
-      <c r="I104" t="n">
-        <v>49.3919123580443</v>
-      </c>
-      <c r="J104" t="n">
-        <v>51.32351085291235</v>
-      </c>
-      <c r="K104" t="n">
-        <v>48.55003084904531</v>
-      </c>
-      <c r="L104" t="n">
-        <v>48.75344967496682</v>
-      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr">
         <is>
           <t>Acid Test Ratio</t>
@@ -6434,39 +6412,17 @@
           <t>A</t>
         </is>
       </c>
-      <c r="B121" t="n">
-        <v>73.36166597542527</v>
-      </c>
-      <c r="C121" t="n">
-        <v>73.31315191318777</v>
-      </c>
-      <c r="D121" t="n">
-        <v>77.39065663495862</v>
-      </c>
-      <c r="E121" t="n">
-        <v>82.55476172723444</v>
-      </c>
-      <c r="F121" t="n">
-        <v>85.52230587231158</v>
-      </c>
-      <c r="G121" t="n">
-        <v>88.57879304792019</v>
-      </c>
-      <c r="H121" t="n">
-        <v>89.85956041373356</v>
-      </c>
-      <c r="I121" t="n">
-        <v>91.25193465692357</v>
-      </c>
-      <c r="J121" t="n">
-        <v>84.32701995008949</v>
-      </c>
-      <c r="K121" t="n">
-        <v>83.13095662970601</v>
-      </c>
-      <c r="L121" t="n">
-        <v>85.03982707536872</v>
-      </c>
+      <c r="B121" t="inlineStr"/>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr">
         <is>
           <t>Short-Term Liabilities to Current Assets</t>

--- a/datum.xlsx
+++ b/datum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="40">
   <si>
     <t>code</t>
   </si>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O343"/>
+  <dimension ref="A1:O341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5339,6 +5339,42 @@
       <c r="A104" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B104">
+        <v>52.04431598901431</v>
+      </c>
+      <c r="C104">
+        <v>56.34323461551698</v>
+      </c>
+      <c r="D104">
+        <v>52.37033107591833</v>
+      </c>
+      <c r="E104">
+        <v>49.9430423443698</v>
+      </c>
+      <c r="F104">
+        <v>47.62945648730166</v>
+      </c>
+      <c r="G104">
+        <v>48.46978489892359</v>
+      </c>
+      <c r="H104">
+        <v>48.87541117991986</v>
+      </c>
+      <c r="I104">
+        <v>49.17026966884021</v>
+      </c>
+      <c r="J104">
+        <v>51.32351085291235</v>
+      </c>
+      <c r="K104">
+        <v>48.49380157510344</v>
+      </c>
+      <c r="L104">
+        <v>48.78116287151622</v>
+      </c>
+      <c r="M104">
+        <v>52.38093533782144</v>
+      </c>
       <c r="N104" t="s">
         <v>25</v>
       </c>
@@ -6102,6 +6138,42 @@
       <c r="A121" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B121">
+        <v>73.3336837999467</v>
+      </c>
+      <c r="C121">
+        <v>73.29435759551788</v>
+      </c>
+      <c r="D121">
+        <v>77.3446307547684</v>
+      </c>
+      <c r="E121">
+        <v>82.63708269892498</v>
+      </c>
+      <c r="F121">
+        <v>85.65618696022567</v>
+      </c>
+      <c r="G121">
+        <v>88.65886722423977</v>
+      </c>
+      <c r="H121">
+        <v>90.14737565243273</v>
+      </c>
+      <c r="I121">
+        <v>89.20644321275554</v>
+      </c>
+      <c r="J121">
+        <v>84.32701995008949</v>
+      </c>
+      <c r="K121">
+        <v>83.2259583247326</v>
+      </c>
+      <c r="L121">
+        <v>84.72877261595694</v>
+      </c>
+      <c r="M121">
+        <v>83.47291956874292</v>
+      </c>
       <c r="N121" t="s">
         <v>26</v>
       </c>
@@ -10061,6 +10133,42 @@
       <c r="A206" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B206">
+        <v>25.02951624753113</v>
+      </c>
+      <c r="C206">
+        <v>24.12669089692304</v>
+      </c>
+      <c r="D206">
+        <v>27.07214964433798</v>
+      </c>
+      <c r="E206">
+        <v>26.57445956821189</v>
+      </c>
+      <c r="F206">
+        <v>27.83869241118816</v>
+      </c>
+      <c r="G206">
+        <v>28.31662124989597</v>
+      </c>
+      <c r="H206">
+        <v>28.17067298442145</v>
+      </c>
+      <c r="I206">
+        <v>27.83728585353721</v>
+      </c>
+      <c r="J206">
+        <v>27.68786684386823</v>
+      </c>
+      <c r="K206">
+        <v>31.64111939353676</v>
+      </c>
+      <c r="L206">
+        <v>32.72486617198827</v>
+      </c>
+      <c r="M206">
+        <v>32.42288392219767</v>
+      </c>
       <c r="N206" t="s">
         <v>31</v>
       </c>
@@ -10072,6 +10180,42 @@
       <c r="A207" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B207">
+        <v>16.66476481670135</v>
+      </c>
+      <c r="C207">
+        <v>18.22382311453014</v>
+      </c>
+      <c r="D207">
+        <v>16.88827916083515</v>
+      </c>
+      <c r="E207">
+        <v>15.82875168750698</v>
+      </c>
+      <c r="F207">
+        <v>15.80730291637436</v>
+      </c>
+      <c r="G207">
+        <v>16.1672416433745</v>
+      </c>
+      <c r="H207">
+        <v>16.1599804647586</v>
+      </c>
+      <c r="I207">
+        <v>15.55004888894314</v>
+      </c>
+      <c r="J207">
+        <v>16.99531324135904</v>
+      </c>
+      <c r="K207">
+        <v>15.21833625628464</v>
+      </c>
+      <c r="L207">
+        <v>15.43433732427938</v>
+      </c>
+      <c r="M207">
+        <v>13.66573169001388</v>
+      </c>
       <c r="N207" t="s">
         <v>31</v>
       </c>
@@ -10083,6 +10227,42 @@
       <c r="A208" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B208">
+        <v>20.49587194932109</v>
+      </c>
+      <c r="C208">
+        <v>21.29060633047635</v>
+      </c>
+      <c r="D208">
+        <v>22.86653134198657</v>
+      </c>
+      <c r="E208">
+        <v>22.34676368332033</v>
+      </c>
+      <c r="F208">
+        <v>22.68174721917829</v>
+      </c>
+      <c r="G208">
+        <v>22.67136220637227</v>
+      </c>
+      <c r="H208">
+        <v>23.31020982470621</v>
+      </c>
+      <c r="I208">
+        <v>23.33674093895623</v>
+      </c>
+      <c r="J208">
+        <v>23.92213567144735</v>
+      </c>
+      <c r="K208">
+        <v>23.88096442364757</v>
+      </c>
+      <c r="L208">
+        <v>24.25336221930771</v>
+      </c>
+      <c r="M208">
+        <v>23.81431447332309</v>
+      </c>
       <c r="N208" t="s">
         <v>31</v>
       </c>
@@ -10094,6 +10274,42 @@
       <c r="A209" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B209">
+        <v>45.73182286968229</v>
+      </c>
+      <c r="C209">
+        <v>37.29903317298621</v>
+      </c>
+      <c r="D209">
+        <v>21.80318186428503</v>
+      </c>
+      <c r="E209">
+        <v>23.00432822770527</v>
+      </c>
+      <c r="F209">
+        <v>20.84672871271654</v>
+      </c>
+      <c r="G209">
+        <v>17.240789282467</v>
+      </c>
+      <c r="H209">
+        <v>17.36280937759511</v>
+      </c>
+      <c r="I209">
+        <v>16.0911232628978</v>
+      </c>
+      <c r="J209">
+        <v>17.68654922815378</v>
+      </c>
+      <c r="K209">
+        <v>20.54513862585418</v>
+      </c>
+      <c r="L209">
+        <v>19.81333718968709</v>
+      </c>
+      <c r="M209">
+        <v>18.18258028959935</v>
+      </c>
       <c r="N209" t="s">
         <v>31</v>
       </c>
@@ -10105,6 +10321,42 @@
       <c r="A210" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B210">
+        <v>19.02957681150217</v>
+      </c>
+      <c r="C210">
+        <v>17.79817654438335</v>
+      </c>
+      <c r="D210">
+        <v>22.22912321854865</v>
+      </c>
+      <c r="E210">
+        <v>21.66495808479729</v>
+      </c>
+      <c r="F210">
+        <v>21.73683996315177</v>
+      </c>
+      <c r="G210">
+        <v>22.356457878212</v>
+      </c>
+      <c r="H210">
+        <v>25.09567740021239</v>
+      </c>
+      <c r="I210">
+        <v>27.97409525338691</v>
+      </c>
+      <c r="J210">
+        <v>32.78986764446155</v>
+      </c>
+      <c r="K210">
+        <v>31.77833746963332</v>
+      </c>
+      <c r="L210">
+        <v>33.44744259829582</v>
+      </c>
+      <c r="M210">
+        <v>31.97322210920174</v>
+      </c>
       <c r="N210" t="s">
         <v>31</v>
       </c>
@@ -10116,6 +10368,42 @@
       <c r="A211" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B211">
+        <v>19.65781464497382</v>
+      </c>
+      <c r="C211">
+        <v>19.16775638314818</v>
+      </c>
+      <c r="D211">
+        <v>19.2514810652301</v>
+      </c>
+      <c r="E211">
+        <v>20.61857297910124</v>
+      </c>
+      <c r="F211">
+        <v>20.90831226082749</v>
+      </c>
+      <c r="G211">
+        <v>21.46989628637359</v>
+      </c>
+      <c r="H211">
+        <v>21.9297892320996</v>
+      </c>
+      <c r="I211">
+        <v>22.04063105811091</v>
+      </c>
+      <c r="J211">
+        <v>23.1799991515506</v>
+      </c>
+      <c r="K211">
+        <v>22.97551835831309</v>
+      </c>
+      <c r="L211">
+        <v>22.96701834210062</v>
+      </c>
+      <c r="M211">
+        <v>22.65103401396565</v>
+      </c>
       <c r="N211" t="s">
         <v>31</v>
       </c>
@@ -10127,6 +10415,42 @@
       <c r="A212" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B212">
+        <v>36.46103303362872</v>
+      </c>
+      <c r="C212">
+        <v>36.63781992270138</v>
+      </c>
+      <c r="D212">
+        <v>38.08392901792583</v>
+      </c>
+      <c r="E212">
+        <v>37.28050680927198</v>
+      </c>
+      <c r="F212">
+        <v>38.26124691598298</v>
+      </c>
+      <c r="G212">
+        <v>38.71510835011792</v>
+      </c>
+      <c r="H212">
+        <v>39.59159646214326</v>
+      </c>
+      <c r="I212">
+        <v>40.26177731708594</v>
+      </c>
+      <c r="J212">
+        <v>40.35936428673122</v>
+      </c>
+      <c r="K212">
+        <v>40.80422544573068</v>
+      </c>
+      <c r="L212">
+        <v>41.62583732921758</v>
+      </c>
+      <c r="M212">
+        <v>41.78915161999496</v>
+      </c>
       <c r="N212" t="s">
         <v>31</v>
       </c>
@@ -10138,6 +10462,42 @@
       <c r="A213" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B213">
+        <v>19.71296264956707</v>
+      </c>
+      <c r="C213">
+        <v>19.67077543755123</v>
+      </c>
+      <c r="D213">
+        <v>19.18059775172953</v>
+      </c>
+      <c r="E213">
+        <v>21.46821486578384</v>
+      </c>
+      <c r="F213">
+        <v>20.22485296548547</v>
+      </c>
+      <c r="G213">
+        <v>20.0177279276947</v>
+      </c>
+      <c r="H213">
+        <v>18.30318761684256</v>
+      </c>
+      <c r="I213">
+        <v>17.49196085560346</v>
+      </c>
+      <c r="J213">
+        <v>17.35858136662384</v>
+      </c>
+      <c r="K213">
+        <v>18.91364200463958</v>
+      </c>
+      <c r="L213">
+        <v>20.17424837340275</v>
+      </c>
+      <c r="M213">
+        <v>19.94845223597749</v>
+      </c>
       <c r="N213" t="s">
         <v>31</v>
       </c>
@@ -10149,6 +10509,42 @@
       <c r="A214" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B214">
+        <v>18.16211745093271</v>
+      </c>
+      <c r="C214">
+        <v>17.53214202571349</v>
+      </c>
+      <c r="D214">
+        <v>17.60125821024844</v>
+      </c>
+      <c r="E214">
+        <v>19.18863378585511</v>
+      </c>
+      <c r="F214">
+        <v>17.71922293878711</v>
+      </c>
+      <c r="G214">
+        <v>18.73750295564219</v>
+      </c>
+      <c r="H214">
+        <v>19.80002244236897</v>
+      </c>
+      <c r="I214">
+        <v>21.5080195980089</v>
+      </c>
+      <c r="J214">
+        <v>21.80363017826827</v>
+      </c>
+      <c r="K214">
+        <v>23.41988229599274</v>
+      </c>
+      <c r="L214">
+        <v>23.79094770954567</v>
+      </c>
+      <c r="M214">
+        <v>22.81704771918001</v>
+      </c>
       <c r="N214" t="s">
         <v>31</v>
       </c>
@@ -10160,6 +10556,42 @@
       <c r="A215" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B215">
+        <v>9.969051380229722</v>
+      </c>
+      <c r="C215">
+        <v>11.06391891028108</v>
+      </c>
+      <c r="D215">
+        <v>17.22676573907792</v>
+      </c>
+      <c r="E215">
+        <v>13.08067395771853</v>
+      </c>
+      <c r="F215">
+        <v>15.10089795292082</v>
+      </c>
+      <c r="G215">
+        <v>17.00725339459162</v>
+      </c>
+      <c r="H215">
+        <v>20.45976144759793</v>
+      </c>
+      <c r="I215">
+        <v>24.91781444363651</v>
+      </c>
+      <c r="J215">
+        <v>21.28617894064197</v>
+      </c>
+      <c r="K215">
+        <v>21.88425328738627</v>
+      </c>
+      <c r="L215">
+        <v>21.94681766827669</v>
+      </c>
+      <c r="M215">
+        <v>22.32973226030317</v>
+      </c>
       <c r="N215" t="s">
         <v>31</v>
       </c>
@@ -10171,6 +10603,42 @@
       <c r="A216" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B216">
+        <v>11.95003728068652</v>
+      </c>
+      <c r="C216">
+        <v>9.471536289116601</v>
+      </c>
+      <c r="D216">
+        <v>10.99376247763447</v>
+      </c>
+      <c r="E216">
+        <v>11.86632046255358</v>
+      </c>
+      <c r="F216">
+        <v>12.8403614745735</v>
+      </c>
+      <c r="G216">
+        <v>13.61762322597522</v>
+      </c>
+      <c r="H216">
+        <v>13.21949677634766</v>
+      </c>
+      <c r="I216">
+        <v>14.19652301788072</v>
+      </c>
+      <c r="J216">
+        <v>15.20289750368551</v>
+      </c>
+      <c r="K216">
+        <v>15.93384555587737</v>
+      </c>
+      <c r="L216">
+        <v>15.29707116984616</v>
+      </c>
+      <c r="M216">
+        <v>15.95585917833653</v>
+      </c>
       <c r="N216" t="s">
         <v>31</v>
       </c>
@@ -10182,6 +10650,42 @@
       <c r="A217" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B217">
+        <v>9.765182965977512</v>
+      </c>
+      <c r="C217">
+        <v>8.866593821790451</v>
+      </c>
+      <c r="D217">
+        <v>10.29240820781604</v>
+      </c>
+      <c r="E217">
+        <v>10.6303125107734</v>
+      </c>
+      <c r="F217">
+        <v>11.39527158616215</v>
+      </c>
+      <c r="G217">
+        <v>14.2704212417919</v>
+      </c>
+      <c r="H217">
+        <v>14.41479071052472</v>
+      </c>
+      <c r="I217">
+        <v>14.54281513249567</v>
+      </c>
+      <c r="J217">
+        <v>15.61234058040532</v>
+      </c>
+      <c r="K217">
+        <v>18.56320184404474</v>
+      </c>
+      <c r="L217">
+        <v>19.17998996098686</v>
+      </c>
+      <c r="M217">
+        <v>20.88796273728434</v>
+      </c>
       <c r="N217" t="s">
         <v>31</v>
       </c>
@@ -10193,6 +10697,42 @@
       <c r="A218" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B218">
+        <v>25.07318541944423</v>
+      </c>
+      <c r="C218">
+        <v>25.36019926548854</v>
+      </c>
+      <c r="D218">
+        <v>28.13207075329085</v>
+      </c>
+      <c r="E218">
+        <v>28.52749004816627</v>
+      </c>
+      <c r="F218">
+        <v>28.91577499706947</v>
+      </c>
+      <c r="G218">
+        <v>29.18544709180959</v>
+      </c>
+      <c r="H218">
+        <v>29.02675307056782</v>
+      </c>
+      <c r="I218">
+        <v>29.3749713476392</v>
+      </c>
+      <c r="J218">
+        <v>30.31258251907911</v>
+      </c>
+      <c r="K218">
+        <v>29.21636629784736</v>
+      </c>
+      <c r="L218">
+        <v>30.4482397050237</v>
+      </c>
+      <c r="M218">
+        <v>27.63573856355036</v>
+      </c>
       <c r="N218" t="s">
         <v>31</v>
       </c>
@@ -10204,6 +10744,42 @@
       <c r="A219" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B219">
+        <v>20.90675107082274</v>
+      </c>
+      <c r="C219">
+        <v>20.71575707925989</v>
+      </c>
+      <c r="D219">
+        <v>20.40710626939739</v>
+      </c>
+      <c r="E219">
+        <v>20.23495514891757</v>
+      </c>
+      <c r="F219">
+        <v>21.06967093080309</v>
+      </c>
+      <c r="G219">
+        <v>21.48082474974749</v>
+      </c>
+      <c r="H219">
+        <v>22.20432368341825</v>
+      </c>
+      <c r="I219">
+        <v>23.58155027336543</v>
+      </c>
+      <c r="J219">
+        <v>23.74957737895269</v>
+      </c>
+      <c r="K219">
+        <v>27.32188918223144</v>
+      </c>
+      <c r="L219">
+        <v>30.06760800454058</v>
+      </c>
+      <c r="M219">
+        <v>26.46577918784538</v>
+      </c>
       <c r="N219" t="s">
         <v>31</v>
       </c>
@@ -10215,6 +10791,42 @@
       <c r="A220" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B220">
+        <v>19.18063279854013</v>
+      </c>
+      <c r="C220">
+        <v>18.98204810691102</v>
+      </c>
+      <c r="D220">
+        <v>20.85243871363051</v>
+      </c>
+      <c r="E220">
+        <v>22.357500162335</v>
+      </c>
+      <c r="F220">
+        <v>21.69769676565761</v>
+      </c>
+      <c r="G220">
+        <v>23.59214740531584</v>
+      </c>
+      <c r="H220">
+        <v>23.51268312416988</v>
+      </c>
+      <c r="I220">
+        <v>26.28173441607649</v>
+      </c>
+      <c r="J220">
+        <v>27.63628249405519</v>
+      </c>
+      <c r="K220">
+        <v>31.32357015596147</v>
+      </c>
+      <c r="L220">
+        <v>27.22994537555608</v>
+      </c>
+      <c r="M220">
+        <v>26.66158148202551</v>
+      </c>
       <c r="N220" t="s">
         <v>31</v>
       </c>
@@ -10226,6 +10838,42 @@
       <c r="A221" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B221">
+        <v>28.4801170487534</v>
+      </c>
+      <c r="C221">
+        <v>23.01029593124787</v>
+      </c>
+      <c r="D221">
+        <v>24.96299267592942</v>
+      </c>
+      <c r="E221">
+        <v>25.81349583007936</v>
+      </c>
+      <c r="F221">
+        <v>28.72297676085838</v>
+      </c>
+      <c r="G221">
+        <v>29.06010436185256</v>
+      </c>
+      <c r="H221">
+        <v>28.16348731521644</v>
+      </c>
+      <c r="I221">
+        <v>32.40868886164134</v>
+      </c>
+      <c r="J221">
+        <v>34.99200204685764</v>
+      </c>
+      <c r="K221">
+        <v>36.69863608700187</v>
+      </c>
+      <c r="L221">
+        <v>35.1324490539725</v>
+      </c>
+      <c r="M221">
+        <v>21.62180470009803</v>
+      </c>
       <c r="N221" t="s">
         <v>31</v>
       </c>
@@ -10237,6 +10885,42 @@
       <c r="A222" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B222">
+        <v>42.37290478348547</v>
+      </c>
+      <c r="C222">
+        <v>40.03424144493998</v>
+      </c>
+      <c r="D222">
+        <v>42.17794446409566</v>
+      </c>
+      <c r="E222">
+        <v>40.27793890877508</v>
+      </c>
+      <c r="F222">
+        <v>41.35863674384967</v>
+      </c>
+      <c r="G222">
+        <v>44.93780512978727</v>
+      </c>
+      <c r="H222">
+        <v>44.46636401876106</v>
+      </c>
+      <c r="I222">
+        <v>47.82866490399101</v>
+      </c>
+      <c r="J222">
+        <v>45.83680129345657</v>
+      </c>
+      <c r="K222">
+        <v>50.6348167975504</v>
+      </c>
+      <c r="L222">
+        <v>51.52273110381651</v>
+      </c>
+      <c r="M222">
+        <v>50.80536492721689</v>
+      </c>
       <c r="N222" t="s">
         <v>31</v>
       </c>
@@ -11846,6 +12530,42 @@
       <c r="A257" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B257">
+        <v>28.72960515901499</v>
+      </c>
+      <c r="C257">
+        <v>27.09327030351085</v>
+      </c>
+      <c r="D257">
+        <v>30.18786720994335</v>
+      </c>
+      <c r="E257">
+        <v>29.85591105736917</v>
+      </c>
+      <c r="F257">
+        <v>31.31808826587606</v>
+      </c>
+      <c r="G257">
+        <v>32.37837846336343</v>
+      </c>
+      <c r="H257">
+        <v>32.80440441935657</v>
+      </c>
+      <c r="I257">
+        <v>32.80039802209719</v>
+      </c>
+      <c r="J257">
+        <v>32.56021576432506</v>
+      </c>
+      <c r="K257">
+        <v>37.29134288467215</v>
+      </c>
+      <c r="L257">
+        <v>38.51347658033794</v>
+      </c>
+      <c r="M257">
+        <v>37.3733749603998</v>
+      </c>
       <c r="N257" t="s">
         <v>34</v>
       </c>
@@ -11857,6 +12577,42 @@
       <c r="A258" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B258">
+        <v>21.58434484638242</v>
+      </c>
+      <c r="C258">
+        <v>22.15224338150671</v>
+      </c>
+      <c r="D258">
+        <v>20.8454328468027</v>
+      </c>
+      <c r="E258">
+        <v>18.52821829082041</v>
+      </c>
+      <c r="F258">
+        <v>21.50082973691033</v>
+      </c>
+      <c r="G258">
+        <v>23.91942784620986</v>
+      </c>
+      <c r="H258">
+        <v>26.54735640334101</v>
+      </c>
+      <c r="I258">
+        <v>28.02797845842447</v>
+      </c>
+      <c r="J258">
+        <v>30.23342998269728</v>
+      </c>
+      <c r="K258">
+        <v>29.8169072856956</v>
+      </c>
+      <c r="L258">
+        <v>28.9169453317055</v>
+      </c>
+      <c r="M258">
+        <v>28.70940884130128</v>
+      </c>
       <c r="N258" t="s">
         <v>34</v>
       </c>
@@ -11868,6 +12624,42 @@
       <c r="A259" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B259">
+        <v>22.47725907023463</v>
+      </c>
+      <c r="C259">
+        <v>23.1389998482524</v>
+      </c>
+      <c r="D259">
+        <v>24.98038112165953</v>
+      </c>
+      <c r="E259">
+        <v>24.36767388104103</v>
+      </c>
+      <c r="F259">
+        <v>24.85492086241877</v>
+      </c>
+      <c r="G259">
+        <v>25.06154247759074</v>
+      </c>
+      <c r="H259">
+        <v>25.63960647199012</v>
+      </c>
+      <c r="I259">
+        <v>25.94399032902139</v>
+      </c>
+      <c r="J259">
+        <v>26.21857874135031</v>
+      </c>
+      <c r="K259">
+        <v>26.6333398495308</v>
+      </c>
+      <c r="L259">
+        <v>26.86773422623349</v>
+      </c>
+      <c r="M259">
+        <v>26.30513902463857</v>
+      </c>
       <c r="N259" t="s">
         <v>34</v>
       </c>
@@ -11879,6 +12671,42 @@
       <c r="A260" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B260">
+        <v>47.901354750175</v>
+      </c>
+      <c r="C260">
+        <v>41.01645850626112</v>
+      </c>
+      <c r="D260">
+        <v>26.3412238610025</v>
+      </c>
+      <c r="E260">
+        <v>27.4352827914829</v>
+      </c>
+      <c r="F260">
+        <v>27.58651986808698</v>
+      </c>
+      <c r="G260">
+        <v>25.66938449999031</v>
+      </c>
+      <c r="H260">
+        <v>25.78010549999573</v>
+      </c>
+      <c r="I260">
+        <v>24.50247504141049</v>
+      </c>
+      <c r="J260">
+        <v>26.13504496434901</v>
+      </c>
+      <c r="K260">
+        <v>28.84670252770765</v>
+      </c>
+      <c r="L260">
+        <v>27.84450963936288</v>
+      </c>
+      <c r="M260">
+        <v>26.57331991953725</v>
+      </c>
       <c r="N260" t="s">
         <v>34</v>
       </c>
@@ -11890,6 +12718,42 @@
       <c r="A261" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B261">
+        <v>20.32399682700788</v>
+      </c>
+      <c r="C261">
+        <v>19.45719587404529</v>
+      </c>
+      <c r="D261">
+        <v>24.76874850994218</v>
+      </c>
+      <c r="E261">
+        <v>25.3040860779986</v>
+      </c>
+      <c r="F261">
+        <v>24.8513282149756</v>
+      </c>
+      <c r="G261">
+        <v>26.68043841203626</v>
+      </c>
+      <c r="H261">
+        <v>30.32564576486865</v>
+      </c>
+      <c r="I261">
+        <v>34.41638068698205</v>
+      </c>
+      <c r="J261">
+        <v>39.17217678868192</v>
+      </c>
+      <c r="K261">
+        <v>39.84154827533801</v>
+      </c>
+      <c r="L261">
+        <v>41.29712341163555</v>
+      </c>
+      <c r="M261">
+        <v>37.63593259076318</v>
+      </c>
       <c r="N261" t="s">
         <v>34</v>
       </c>
@@ -11901,6 +12765,42 @@
       <c r="A262" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B262">
+        <v>24.51547379402862</v>
+      </c>
+      <c r="C262">
+        <v>24.01571481399475</v>
+      </c>
+      <c r="D262">
+        <v>24.1805432346147</v>
+      </c>
+      <c r="E262">
+        <v>25.68453662913615</v>
+      </c>
+      <c r="F262">
+        <v>26.10430557555733</v>
+      </c>
+      <c r="G262">
+        <v>26.69073975451066</v>
+      </c>
+      <c r="H262">
+        <v>27.33234377358113</v>
+      </c>
+      <c r="I262">
+        <v>27.9611880658325</v>
+      </c>
+      <c r="J262">
+        <v>29.64579156655704</v>
+      </c>
+      <c r="K262">
+        <v>30.32127982071448</v>
+      </c>
+      <c r="L262">
+        <v>30.76617690558465</v>
+      </c>
+      <c r="M262">
+        <v>30.29231442291926</v>
+      </c>
       <c r="N262" t="s">
         <v>34</v>
       </c>
@@ -11912,6 +12812,42 @@
       <c r="A263" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B263">
+        <v>39.52700294115305</v>
+      </c>
+      <c r="C263">
+        <v>39.35442802927362</v>
+      </c>
+      <c r="D263">
+        <v>40.78136871686475</v>
+      </c>
+      <c r="E263">
+        <v>40.36072521641197</v>
+      </c>
+      <c r="F263">
+        <v>41.43632013515924</v>
+      </c>
+      <c r="G263">
+        <v>41.8758747621133</v>
+      </c>
+      <c r="H263">
+        <v>42.59854209606452</v>
+      </c>
+      <c r="I263">
+        <v>43.36489742703811</v>
+      </c>
+      <c r="J263">
+        <v>43.47327250274385</v>
+      </c>
+      <c r="K263">
+        <v>44.29881569755692</v>
+      </c>
+      <c r="L263">
+        <v>45.41446553752628</v>
+      </c>
+      <c r="M263">
+        <v>45.60435576741854</v>
+      </c>
       <c r="N263" t="s">
         <v>34</v>
       </c>
@@ -11923,6 +12859,42 @@
       <c r="A264" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B264">
+        <v>21.99889244744082</v>
+      </c>
+      <c r="C264">
+        <v>21.70678536653552</v>
+      </c>
+      <c r="D264">
+        <v>21.88415414357731</v>
+      </c>
+      <c r="E264">
+        <v>23.90243709074548</v>
+      </c>
+      <c r="F264">
+        <v>22.59274222836117</v>
+      </c>
+      <c r="G264">
+        <v>23.0306436397101</v>
+      </c>
+      <c r="H264">
+        <v>21.82471991887962</v>
+      </c>
+      <c r="I264">
+        <v>21.8089272443235</v>
+      </c>
+      <c r="J264">
+        <v>21.06601396677067</v>
+      </c>
+      <c r="K264">
+        <v>24.01420967962385</v>
+      </c>
+      <c r="L264">
+        <v>26.06367215589056</v>
+      </c>
+      <c r="M264">
+        <v>25.66934491426716</v>
+      </c>
       <c r="N264" t="s">
         <v>34</v>
       </c>
@@ -11934,6 +12906,42 @@
       <c r="A265" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B265">
+        <v>20.89264457276604</v>
+      </c>
+      <c r="C265">
+        <v>20.209759152564</v>
+      </c>
+      <c r="D265">
+        <v>20.36812537653876</v>
+      </c>
+      <c r="E265">
+        <v>21.87614356836726</v>
+      </c>
+      <c r="F265">
+        <v>20.69556172870202</v>
+      </c>
+      <c r="G265">
+        <v>21.86380001344296</v>
+      </c>
+      <c r="H265">
+        <v>23.00406448665741</v>
+      </c>
+      <c r="I265">
+        <v>25.51685969519043</v>
+      </c>
+      <c r="J265">
+        <v>26.07527579739369</v>
+      </c>
+      <c r="K265">
+        <v>28.42788027165264</v>
+      </c>
+      <c r="L265">
+        <v>29.04773103032027</v>
+      </c>
+      <c r="M265">
+        <v>28.24359626688169</v>
+      </c>
       <c r="N265" t="s">
         <v>34</v>
       </c>
@@ -11945,6 +12953,42 @@
       <c r="A266" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B266">
+        <v>19.71285077592634</v>
+      </c>
+      <c r="C266">
+        <v>20.17072152628457</v>
+      </c>
+      <c r="D266">
+        <v>25.2504387165777</v>
+      </c>
+      <c r="E266">
+        <v>20.72201059316343</v>
+      </c>
+      <c r="F266">
+        <v>25.91509864392662</v>
+      </c>
+      <c r="G266">
+        <v>26.14712799566389</v>
+      </c>
+      <c r="H266">
+        <v>30.88741404374803</v>
+      </c>
+      <c r="I266">
+        <v>33.13427676119858</v>
+      </c>
+      <c r="J266">
+        <v>30.2333654102454</v>
+      </c>
+      <c r="K266">
+        <v>29.46403152708974</v>
+      </c>
+      <c r="L266">
+        <v>27.15760682105635</v>
+      </c>
+      <c r="M266">
+        <v>27.04862048313716</v>
+      </c>
       <c r="N266" t="s">
         <v>34</v>
       </c>
@@ -11956,6 +13000,42 @@
       <c r="A267" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B267">
+        <v>16.30141209981549</v>
+      </c>
+      <c r="C267">
+        <v>12.43273229637256</v>
+      </c>
+      <c r="D267">
+        <v>13.82814617807655</v>
+      </c>
+      <c r="E267">
+        <v>15.49507580116939</v>
+      </c>
+      <c r="F267">
+        <v>17.89759405041454</v>
+      </c>
+      <c r="G267">
+        <v>18.3300411284315</v>
+      </c>
+      <c r="H267">
+        <v>18.91834918083975</v>
+      </c>
+      <c r="I267">
+        <v>21.29751712409693</v>
+      </c>
+      <c r="J267">
+        <v>22.21699602265988</v>
+      </c>
+      <c r="K267">
+        <v>24.37100714137764</v>
+      </c>
+      <c r="L267">
+        <v>23.38231299259368</v>
+      </c>
+      <c r="M267">
+        <v>25.71705680349298</v>
+      </c>
       <c r="N267" t="s">
         <v>34</v>
       </c>
@@ -11967,6 +13047,42 @@
       <c r="A268" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B268">
+        <v>12.16408711922227</v>
+      </c>
+      <c r="C268">
+        <v>11.46991042830402</v>
+      </c>
+      <c r="D268">
+        <v>13.01314626175678</v>
+      </c>
+      <c r="E268">
+        <v>14.12705813798169</v>
+      </c>
+      <c r="F268">
+        <v>14.4969303505122</v>
+      </c>
+      <c r="G268">
+        <v>17.79352615108246</v>
+      </c>
+      <c r="H268">
+        <v>18.14293526542572</v>
+      </c>
+      <c r="I268">
+        <v>20.27219115481864</v>
+      </c>
+      <c r="J268">
+        <v>23.10973005162181</v>
+      </c>
+      <c r="K268">
+        <v>25.27456176712124</v>
+      </c>
+      <c r="L268">
+        <v>25.58973067098331</v>
+      </c>
+      <c r="M268">
+        <v>28.09363031745407</v>
+      </c>
       <c r="N268" t="s">
         <v>34</v>
       </c>
@@ -11978,6 +13094,42 @@
       <c r="A269" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B269">
+        <v>30.25678355539896</v>
+      </c>
+      <c r="C269">
+        <v>30.2504337333035</v>
+      </c>
+      <c r="D269">
+        <v>32.81313461346503</v>
+      </c>
+      <c r="E269">
+        <v>32.57953945839279</v>
+      </c>
+      <c r="F269">
+        <v>32.42223549973983</v>
+      </c>
+      <c r="G269">
+        <v>33.59478846547653</v>
+      </c>
+      <c r="H269">
+        <v>33.43867130480341</v>
+      </c>
+      <c r="I269">
+        <v>34.14291637921691</v>
+      </c>
+      <c r="J269">
+        <v>35.66012522584286</v>
+      </c>
+      <c r="K269">
+        <v>35.4212716554806</v>
+      </c>
+      <c r="L269">
+        <v>35.71490774878039</v>
+      </c>
+      <c r="M269">
+        <v>33.16153015874707</v>
+      </c>
       <c r="N269" t="s">
         <v>34</v>
       </c>
@@ -11989,6 +13141,42 @@
       <c r="A270" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B270">
+        <v>25.0308059731572</v>
+      </c>
+      <c r="C270">
+        <v>23.97357724523171</v>
+      </c>
+      <c r="D270">
+        <v>24.36984519337509</v>
+      </c>
+      <c r="E270">
+        <v>23.18919441796738</v>
+      </c>
+      <c r="F270">
+        <v>23.90176795074048</v>
+      </c>
+      <c r="G270">
+        <v>24.30909645609061</v>
+      </c>
+      <c r="H270">
+        <v>24.95358603431244</v>
+      </c>
+      <c r="I270">
+        <v>29.03476589745777</v>
+      </c>
+      <c r="J270">
+        <v>28.20773023936037</v>
+      </c>
+      <c r="K270">
+        <v>30.88542401194968</v>
+      </c>
+      <c r="L270">
+        <v>34.06462712106651</v>
+      </c>
+      <c r="M270">
+        <v>30.52647984204228</v>
+      </c>
       <c r="N270" t="s">
         <v>34</v>
       </c>
@@ -12000,6 +13188,42 @@
       <c r="A271" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B271">
+        <v>21.71558519847425</v>
+      </c>
+      <c r="C271">
+        <v>20.95386409992108</v>
+      </c>
+      <c r="D271">
+        <v>23.63154604028027</v>
+      </c>
+      <c r="E271">
+        <v>24.85173652044446</v>
+      </c>
+      <c r="F271">
+        <v>24.25675244476527</v>
+      </c>
+      <c r="G271">
+        <v>25.89361209556467</v>
+      </c>
+      <c r="H271">
+        <v>26.05818956911853</v>
+      </c>
+      <c r="I271">
+        <v>29.19655751133206</v>
+      </c>
+      <c r="J271">
+        <v>30.84742543874331</v>
+      </c>
+      <c r="K271">
+        <v>34.96385291597901</v>
+      </c>
+      <c r="L271">
+        <v>31.6860396685193</v>
+      </c>
+      <c r="M271">
+        <v>31.02262371997962</v>
+      </c>
       <c r="N271" t="s">
         <v>34</v>
       </c>
@@ -12011,6 +13235,42 @@
       <c r="A272" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B272">
+        <v>34.31182843795389</v>
+      </c>
+      <c r="C272">
+        <v>30.28743768140083</v>
+      </c>
+      <c r="D272">
+        <v>30.06133150155633</v>
+      </c>
+      <c r="E272">
+        <v>30.66033255840878</v>
+      </c>
+      <c r="F272">
+        <v>33.81861510923926</v>
+      </c>
+      <c r="G272">
+        <v>33.97684397787455</v>
+      </c>
+      <c r="H272">
+        <v>33.20624120492153</v>
+      </c>
+      <c r="I272">
+        <v>37.07706390559934</v>
+      </c>
+      <c r="J272">
+        <v>39.58338876529871</v>
+      </c>
+      <c r="K272">
+        <v>41.37350290344743</v>
+      </c>
+      <c r="L272">
+        <v>40.71774080081631</v>
+      </c>
+      <c r="M272">
+        <v>37.43699352910168</v>
+      </c>
       <c r="N272" t="s">
         <v>34</v>
       </c>
@@ -12022,6 +13282,42 @@
       <c r="A273" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B273">
+        <v>45.81752722883566</v>
+      </c>
+      <c r="C273">
+        <v>43.78525717501476</v>
+      </c>
+      <c r="D273">
+        <v>45.8282540911937</v>
+      </c>
+      <c r="E273">
+        <v>44.16649200828309</v>
+      </c>
+      <c r="F273">
+        <v>44.7574752792051</v>
+      </c>
+      <c r="G273">
+        <v>48.91438079808628</v>
+      </c>
+      <c r="H273">
+        <v>49.47921243939015</v>
+      </c>
+      <c r="I273">
+        <v>52.30409316003853</v>
+      </c>
+      <c r="J273">
+        <v>50.797902641265</v>
+      </c>
+      <c r="K273">
+        <v>55.9157385008984</v>
+      </c>
+      <c r="L273">
+        <v>57.10146655618028</v>
+      </c>
+      <c r="M273">
+        <v>56.77845287456293</v>
+      </c>
       <c r="N273" t="s">
         <v>34</v>
       </c>
@@ -12033,6 +13329,42 @@
       <c r="A274" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B274">
+        <v>46.94421142138388</v>
+      </c>
+      <c r="C274">
+        <v>47.68457938030566</v>
+      </c>
+      <c r="D274">
+        <v>52.82645677127165</v>
+      </c>
+      <c r="E274">
+        <v>53.94219149352344</v>
+      </c>
+      <c r="F274">
+        <v>56.57873549248592</v>
+      </c>
+      <c r="G274">
+        <v>57.93366684023676</v>
+      </c>
+      <c r="H274">
+        <v>59.62135340617507</v>
+      </c>
+      <c r="I274">
+        <v>57.51638082221882</v>
+      </c>
+      <c r="J274">
+        <v>57.82550853083022</v>
+      </c>
+      <c r="K274">
+        <v>60.11217325415142</v>
+      </c>
+      <c r="L274">
+        <v>60.45806321100244</v>
+      </c>
+      <c r="M274">
+        <v>61.13241210303167</v>
+      </c>
       <c r="N274" t="s">
         <v>35</v>
       </c>
@@ -12044,6 +13376,42 @@
       <c r="A275" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B275">
+        <v>32.99390845423182</v>
+      </c>
+      <c r="C275">
+        <v>33.07943853919213</v>
+      </c>
+      <c r="D275">
+        <v>33.44496949934953</v>
+      </c>
+      <c r="E275">
+        <v>32.8246547395798</v>
+      </c>
+      <c r="F275">
+        <v>39.17716579879104</v>
+      </c>
+      <c r="G275">
+        <v>44.48775561004146</v>
+      </c>
+      <c r="H275">
+        <v>48.44370333942298</v>
+      </c>
+      <c r="I275">
+        <v>52.49896486850638</v>
+      </c>
+      <c r="J275">
+        <v>55.17018722976293</v>
+      </c>
+      <c r="K275">
+        <v>54.4131025961012</v>
+      </c>
+      <c r="L275">
+        <v>53.47674775147954</v>
+      </c>
+      <c r="M275">
+        <v>52.74899620488591</v>
+      </c>
       <c r="N275" t="s">
         <v>35</v>
       </c>
@@ -12055,6 +13423,42 @@
       <c r="A276" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B276">
+        <v>44.29866407945505</v>
+      </c>
+      <c r="C276">
+        <v>45.98614568543836</v>
+      </c>
+      <c r="D276">
+        <v>49.92693579164045</v>
+      </c>
+      <c r="E276">
+        <v>49.19132597678502</v>
+      </c>
+      <c r="F276">
+        <v>52.34089657379902</v>
+      </c>
+      <c r="G276">
+        <v>52.91953013186138</v>
+      </c>
+      <c r="H276">
+        <v>54.02844497394264</v>
+      </c>
+      <c r="I276">
+        <v>54.24491252061019</v>
+      </c>
+      <c r="J276">
+        <v>55.10593568586309</v>
+      </c>
+      <c r="K276">
+        <v>55.95147349155609</v>
+      </c>
+      <c r="L276">
+        <v>55.76214297508392</v>
+      </c>
+      <c r="M276">
+        <v>55.78451889919577</v>
+      </c>
       <c r="N276" t="s">
         <v>35</v>
       </c>
@@ -12066,6 +13470,42 @@
       <c r="A277" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B277">
+        <v>65.02655710655071</v>
+      </c>
+      <c r="C277">
+        <v>59.84041326503434</v>
+      </c>
+      <c r="D277">
+        <v>54.11728402058936</v>
+      </c>
+      <c r="E277">
+        <v>53.41390516779101</v>
+      </c>
+      <c r="F277">
+        <v>57.79344060127004</v>
+      </c>
+      <c r="G277">
+        <v>57.49128718642485</v>
+      </c>
+      <c r="H277">
+        <v>61.42562971005775</v>
+      </c>
+      <c r="I277">
+        <v>63.79533157352366</v>
+      </c>
+      <c r="J277">
+        <v>66.69240407803571</v>
+      </c>
+      <c r="K277">
+        <v>72.94834906888326</v>
+      </c>
+      <c r="L277">
+        <v>71.75805285555714</v>
+      </c>
+      <c r="M277">
+        <v>71.5925918207972</v>
+      </c>
       <c r="N277" t="s">
         <v>35</v>
       </c>
@@ -12077,6 +13517,42 @@
       <c r="A278" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B278">
+        <v>32.14511027481935</v>
+      </c>
+      <c r="C278">
+        <v>32.90825111901857</v>
+      </c>
+      <c r="D278">
+        <v>38.9463509484624</v>
+      </c>
+      <c r="E278">
+        <v>40.0836010891984</v>
+      </c>
+      <c r="F278">
+        <v>42.99390505978815</v>
+      </c>
+      <c r="G278">
+        <v>47.15278986225174</v>
+      </c>
+      <c r="H278">
+        <v>48.83440000152709</v>
+      </c>
+      <c r="I278">
+        <v>52.13075428690013</v>
+      </c>
+      <c r="J278">
+        <v>56.70859997593796</v>
+      </c>
+      <c r="K278">
+        <v>55.36209240106564</v>
+      </c>
+      <c r="L278">
+        <v>57.5818672727698</v>
+      </c>
+      <c r="M278">
+        <v>60.17510523464034</v>
+      </c>
       <c r="N278" t="s">
         <v>35</v>
       </c>
@@ -12088,6 +13564,42 @@
       <c r="A279" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B279">
+        <v>36.01033208154803</v>
+      </c>
+      <c r="C279">
+        <v>36.83719455894539</v>
+      </c>
+      <c r="D279">
+        <v>38.61410962124878</v>
+      </c>
+      <c r="E279">
+        <v>40.1570970994789</v>
+      </c>
+      <c r="F279">
+        <v>42.44136795089581</v>
+      </c>
+      <c r="G279">
+        <v>44.81901910598988</v>
+      </c>
+      <c r="H279">
+        <v>47.1520085516498</v>
+      </c>
+      <c r="I279">
+        <v>49.03447595453149</v>
+      </c>
+      <c r="J279">
+        <v>49.49606422280412</v>
+      </c>
+      <c r="K279">
+        <v>50.11835337073104</v>
+      </c>
+      <c r="L279">
+        <v>50.45409344457983</v>
+      </c>
+      <c r="M279">
+        <v>51.55381249189927</v>
+      </c>
       <c r="N279" t="s">
         <v>35</v>
       </c>
@@ -12099,6 +13611,42 @@
       <c r="A280" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B280">
+        <v>57.1436312734274</v>
+      </c>
+      <c r="C280">
+        <v>57.96811467877311</v>
+      </c>
+      <c r="D280">
+        <v>60.50672892006156</v>
+      </c>
+      <c r="E280">
+        <v>60.64344283601596</v>
+      </c>
+      <c r="F280">
+        <v>63.13469849454592</v>
+      </c>
+      <c r="G280">
+        <v>64.24167155401675</v>
+      </c>
+      <c r="H280">
+        <v>65.22837791372373</v>
+      </c>
+      <c r="I280">
+        <v>65.17846275513909</v>
+      </c>
+      <c r="J280">
+        <v>65.57147013218398</v>
+      </c>
+      <c r="K280">
+        <v>64.81370398624838</v>
+      </c>
+      <c r="L280">
+        <v>64.52149094541531</v>
+      </c>
+      <c r="M280">
+        <v>65.14333769203711</v>
+      </c>
       <c r="N280" t="s">
         <v>35</v>
       </c>
@@ -12110,6 +13658,42 @@
       <c r="A281" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B281">
+        <v>44.95471726448525</v>
+      </c>
+      <c r="C281">
+        <v>45.73275558639243</v>
+      </c>
+      <c r="D281">
+        <v>51.37566547331441</v>
+      </c>
+      <c r="E281">
+        <v>50.21944650674486</v>
+      </c>
+      <c r="F281">
+        <v>51.89061047753049</v>
+      </c>
+      <c r="G281">
+        <v>52.36233950760216</v>
+      </c>
+      <c r="H281">
+        <v>54.99904268703171</v>
+      </c>
+      <c r="I281">
+        <v>59.39731169110782</v>
+      </c>
+      <c r="J281">
+        <v>59.96943740385657</v>
+      </c>
+      <c r="K281">
+        <v>73.35302929224068</v>
+      </c>
+      <c r="L281">
+        <v>75.30545665760869</v>
+      </c>
+      <c r="M281">
+        <v>83.28877347028461</v>
+      </c>
       <c r="N281" t="s">
         <v>35</v>
       </c>
@@ -12121,6 +13705,42 @@
       <c r="A282" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B282">
+        <v>47.01842225016536</v>
+      </c>
+      <c r="C282">
+        <v>47.96679918823628</v>
+      </c>
+      <c r="D282">
+        <v>50.11218758359657</v>
+      </c>
+      <c r="E282">
+        <v>50.52559213077944</v>
+      </c>
+      <c r="F282">
+        <v>54.17994449540986</v>
+      </c>
+      <c r="G282">
+        <v>58.30993717760516</v>
+      </c>
+      <c r="H282">
+        <v>61.87735329278734</v>
+      </c>
+      <c r="I282">
+        <v>67.13471357448431</v>
+      </c>
+      <c r="J282">
+        <v>68.96390361257852</v>
+      </c>
+      <c r="K282">
+        <v>73.60634898555774</v>
+      </c>
+      <c r="L282">
+        <v>70.5758814320677</v>
+      </c>
+      <c r="M282">
+        <v>76.91976160334323</v>
+      </c>
       <c r="N282" t="s">
         <v>35</v>
       </c>
@@ -12132,6 +13752,42 @@
       <c r="A283" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B283">
+        <v>39.85539994359385</v>
+      </c>
+      <c r="C283">
+        <v>39.82200963230903</v>
+      </c>
+      <c r="D283">
+        <v>44.60223821602443</v>
+      </c>
+      <c r="E283">
+        <v>39.6272381326727</v>
+      </c>
+      <c r="F283">
+        <v>40.99144839546648</v>
+      </c>
+      <c r="G283">
+        <v>41.71960643626507</v>
+      </c>
+      <c r="H283">
+        <v>49.07694930490909</v>
+      </c>
+      <c r="I283">
+        <v>53.62278819009323</v>
+      </c>
+      <c r="J283">
+        <v>50.70839949754923</v>
+      </c>
+      <c r="K283">
+        <v>51.63383233927123</v>
+      </c>
+      <c r="L283">
+        <v>48.50297515270144</v>
+      </c>
+      <c r="M283">
+        <v>47.39897094927974</v>
+      </c>
       <c r="N283" t="s">
         <v>35</v>
       </c>
@@ -12143,6 +13799,42 @@
       <c r="A284" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B284">
+        <v>47.6518228350884</v>
+      </c>
+      <c r="C284">
+        <v>42.44409284021289</v>
+      </c>
+      <c r="D284">
+        <v>47.3044493007549</v>
+      </c>
+      <c r="E284">
+        <v>46.00550351684554</v>
+      </c>
+      <c r="F284">
+        <v>50.9808074765909</v>
+      </c>
+      <c r="G284">
+        <v>49.5307155387838</v>
+      </c>
+      <c r="H284">
+        <v>54.1402786224394</v>
+      </c>
+      <c r="I284">
+        <v>59.9940186682982</v>
+      </c>
+      <c r="J284">
+        <v>63.84402365847792</v>
+      </c>
+      <c r="K284">
+        <v>70.58255248351239</v>
+      </c>
+      <c r="L284">
+        <v>69.6197082613316</v>
+      </c>
+      <c r="M284">
+        <v>78.53296483610463</v>
+      </c>
       <c r="N284" t="s">
         <v>35</v>
       </c>
@@ -12154,6 +13846,42 @@
       <c r="A285" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B285">
+        <v>22.32704537378282</v>
+      </c>
+      <c r="C285">
+        <v>22.08285227505724</v>
+      </c>
+      <c r="D285">
+        <v>23.78333258080634</v>
+      </c>
+      <c r="E285">
+        <v>25.46995232115952</v>
+      </c>
+      <c r="F285">
+        <v>31.03847604703069</v>
+      </c>
+      <c r="G285">
+        <v>36.20472330596883</v>
+      </c>
+      <c r="H285">
+        <v>37.34379194726793</v>
+      </c>
+      <c r="I285">
+        <v>40.84956353812933</v>
+      </c>
+      <c r="J285">
+        <v>43.76672433522317</v>
+      </c>
+      <c r="K285">
+        <v>47.09480506011171</v>
+      </c>
+      <c r="L285">
+        <v>46.51822237839394</v>
+      </c>
+      <c r="M285">
+        <v>51.13695442527636</v>
+      </c>
       <c r="N285" t="s">
         <v>35</v>
       </c>
@@ -12165,6 +13893,42 @@
       <c r="A286" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B286">
+        <v>52.2643276064337</v>
+      </c>
+      <c r="C286">
+        <v>52.53878874968412</v>
+      </c>
+      <c r="D286">
+        <v>56.69153295640444</v>
+      </c>
+      <c r="E286">
+        <v>56.42184022222359</v>
+      </c>
+      <c r="F286">
+        <v>59.55753907794123</v>
+      </c>
+      <c r="G286">
+        <v>61.72370910139159</v>
+      </c>
+      <c r="H286">
+        <v>63.27384512704494</v>
+      </c>
+      <c r="I286">
+        <v>65.86700898039663</v>
+      </c>
+      <c r="J286">
+        <v>68.83485391884692</v>
+      </c>
+      <c r="K286">
+        <v>66.19969624582276</v>
+      </c>
+      <c r="L286">
+        <v>61.0360139532753</v>
+      </c>
+      <c r="M286">
+        <v>61.97690387573952</v>
+      </c>
       <c r="N286" t="s">
         <v>35</v>
       </c>
@@ -12176,6 +13940,42 @@
       <c r="A287" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B287">
+        <v>34.15671280600121</v>
+      </c>
+      <c r="C287">
+        <v>33.91206114782533</v>
+      </c>
+      <c r="D287">
+        <v>34.72011909110046</v>
+      </c>
+      <c r="E287">
+        <v>34.49895463504613</v>
+      </c>
+      <c r="F287">
+        <v>38.90213957321295</v>
+      </c>
+      <c r="G287">
+        <v>41.04510979669423</v>
+      </c>
+      <c r="H287">
+        <v>44.158784241772</v>
+      </c>
+      <c r="I287">
+        <v>48.91217395081316</v>
+      </c>
+      <c r="J287">
+        <v>49.58204266273938</v>
+      </c>
+      <c r="K287">
+        <v>51.65203204291514</v>
+      </c>
+      <c r="L287">
+        <v>53.24732897603955</v>
+      </c>
+      <c r="M287">
+        <v>50.2435319155465</v>
+      </c>
       <c r="N287" t="s">
         <v>35</v>
       </c>
@@ -12187,6 +13987,42 @@
       <c r="A288" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B288">
+        <v>44.21057901202277</v>
+      </c>
+      <c r="C288">
+        <v>45.2991981315642</v>
+      </c>
+      <c r="D288">
+        <v>50.74013220983393</v>
+      </c>
+      <c r="E288">
+        <v>50.85802253383744</v>
+      </c>
+      <c r="F288">
+        <v>55.02250248279761</v>
+      </c>
+      <c r="G288">
+        <v>57.88437486171516</v>
+      </c>
+      <c r="H288">
+        <v>60.57142675184642</v>
+      </c>
+      <c r="I288">
+        <v>63.19016042680401</v>
+      </c>
+      <c r="J288">
+        <v>64.97484645719693</v>
+      </c>
+      <c r="K288">
+        <v>64.66597301151037</v>
+      </c>
+      <c r="L288">
+        <v>61.09664379590694</v>
+      </c>
+      <c r="M288">
+        <v>61.77403263617209</v>
+      </c>
       <c r="N288" t="s">
         <v>35</v>
       </c>
@@ -12198,6 +14034,42 @@
       <c r="A289" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B289">
+        <v>56.93773914587199</v>
+      </c>
+      <c r="C289">
+        <v>51.88268432458113</v>
+      </c>
+      <c r="D289">
+        <v>52.72808890718927</v>
+      </c>
+      <c r="E289">
+        <v>54.28990371777433</v>
+      </c>
+      <c r="F289">
+        <v>57.61942466318867</v>
+      </c>
+      <c r="G289">
+        <v>57.32541206779528</v>
+      </c>
+      <c r="H289">
+        <v>60.71070864108594</v>
+      </c>
+      <c r="I289">
+        <v>64.47593215239024</v>
+      </c>
+      <c r="J289">
+        <v>66.62968787582305</v>
+      </c>
+      <c r="K289">
+        <v>70.05264820896261</v>
+      </c>
+      <c r="L289">
+        <v>64.26777703003708</v>
+      </c>
+      <c r="M289">
+        <v>84.84374769678567</v>
+      </c>
       <c r="N289" t="s">
         <v>35</v>
       </c>
@@ -12209,6 +14081,42 @@
       <c r="A290" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B290">
+        <v>55.72416129158879</v>
+      </c>
+      <c r="C290">
+        <v>53.49306918067255</v>
+      </c>
+      <c r="D290">
+        <v>58.89841030712893</v>
+      </c>
+      <c r="E290">
+        <v>58.45449369201983</v>
+      </c>
+      <c r="F290">
+        <v>60.3236870368487</v>
+      </c>
+      <c r="G290">
+        <v>62.79278833593245</v>
+      </c>
+      <c r="H290">
+        <v>65.24881983666171</v>
+      </c>
+      <c r="I290">
+        <v>67.27481117274505</v>
+      </c>
+      <c r="J290">
+        <v>66.56946153409406</v>
+      </c>
+      <c r="K290">
+        <v>68.33473026699359</v>
+      </c>
+      <c r="L290">
+        <v>69.05281865080269</v>
+      </c>
+      <c r="M290">
+        <v>69.74506021460689</v>
+      </c>
       <c r="N290" t="s">
         <v>35</v>
       </c>
@@ -13020,40 +14928,40 @@
         <v>2</v>
       </c>
       <c r="B308">
-        <v>25.32845615672026</v>
+        <v>22.6769902895353</v>
       </c>
       <c r="C308">
-        <v>23.72315371690761</v>
+        <v>19.74531137673234</v>
       </c>
       <c r="D308">
-        <v>20.66290681664566</v>
+        <v>15.57244753278107</v>
       </c>
       <c r="E308">
-        <v>21.05513720598938</v>
+        <v>15.77338916386624</v>
       </c>
       <c r="F308">
-        <v>18.49002776607347</v>
+        <v>14.10959513759864</v>
       </c>
       <c r="G308">
-        <v>17.81050250324199</v>
+        <v>14.60371629355004</v>
       </c>
       <c r="H308">
-        <v>17.29791639952301</v>
+        <v>14.52159629412301</v>
       </c>
       <c r="I308">
-        <v>15.70084716263354</v>
+        <v>14.72236009265534</v>
       </c>
       <c r="J308">
-        <v>16.4219145018223</v>
+        <v>16.15535643190222</v>
       </c>
       <c r="K308">
-        <v>16.53240164131339</v>
+        <v>15.59001736966417</v>
       </c>
       <c r="L308">
-        <v>16.94242652096888</v>
+        <v>16.06073503013882</v>
       </c>
       <c r="M308">
-        <v>15.89655150042346</v>
+        <v>15.4154781104652</v>
       </c>
       <c r="N308" t="s">
         <v>37</v>
@@ -13064,43 +14972,43 @@
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B309">
-        <v>22.6769902895353</v>
+        <v>47.92508918415472</v>
       </c>
       <c r="C309">
-        <v>19.74531137673234</v>
+        <v>45.7328575244208</v>
       </c>
       <c r="D309">
-        <v>15.57244753278107</v>
+        <v>42.1043752175425</v>
       </c>
       <c r="E309">
-        <v>15.77338916386624</v>
+        <v>38.09814087290388</v>
       </c>
       <c r="F309">
-        <v>14.10959513759864</v>
+        <v>29.79570266823163</v>
       </c>
       <c r="G309">
-        <v>14.60371629355004</v>
+        <v>24.19070021744378</v>
       </c>
       <c r="H309">
-        <v>14.52159629412301</v>
+        <v>21.16620582997766</v>
       </c>
       <c r="I309">
-        <v>14.72236009265534</v>
+        <v>19.19790558338985</v>
       </c>
       <c r="J309">
-        <v>16.15535643190222</v>
+        <v>20.52827547896313</v>
       </c>
       <c r="K309">
-        <v>15.59001736966417</v>
+        <v>21.13907171314012</v>
       </c>
       <c r="L309">
-        <v>16.06073503013882</v>
+        <v>22.13524094454119</v>
       </c>
       <c r="M309">
-        <v>15.4154781104652</v>
+        <v>24.17443462165982</v>
       </c>
       <c r="N309" t="s">
         <v>37</v>
@@ -13111,43 +15019,43 @@
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B310">
-        <v>47.92508918415472</v>
+        <v>45.64094204123349</v>
       </c>
       <c r="C310">
-        <v>45.7328575244208</v>
+        <v>42.21827768382322</v>
       </c>
       <c r="D310">
-        <v>42.1043752175425</v>
+        <v>38.13333496221039</v>
       </c>
       <c r="E310">
-        <v>38.09814087290388</v>
+        <v>36.63888710630216</v>
       </c>
       <c r="F310">
-        <v>29.79570266823163</v>
+        <v>33.51809006200654</v>
       </c>
       <c r="G310">
-        <v>24.19070021744378</v>
+        <v>32.59737980138746</v>
       </c>
       <c r="H310">
-        <v>21.16620582997766</v>
+        <v>30.70770300004838</v>
       </c>
       <c r="I310">
-        <v>19.19790558338985</v>
+        <v>28.7057223544029</v>
       </c>
       <c r="J310">
-        <v>20.52827547896313</v>
+        <v>28.64650247256383</v>
       </c>
       <c r="K310">
-        <v>21.13907171314012</v>
+        <v>29.71572439908008</v>
       </c>
       <c r="L310">
-        <v>22.13524094454119</v>
+        <v>27.16394617460352</v>
       </c>
       <c r="M310">
-        <v>24.17443462165982</v>
+        <v>26.69960594105214</v>
       </c>
       <c r="N310" t="s">
         <v>37</v>
@@ -13158,43 +15066,43 @@
     </row>
     <row r="311" spans="1:15">
       <c r="A311" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B311">
-        <v>45.64094204123349</v>
+        <v>28.23245442855345</v>
       </c>
       <c r="C311">
-        <v>42.21827768382322</v>
+        <v>30.55715661056341</v>
       </c>
       <c r="D311">
-        <v>38.13333496221039</v>
+        <v>28.90063551878062</v>
       </c>
       <c r="E311">
-        <v>36.63888710630216</v>
+        <v>29.29973954416377</v>
       </c>
       <c r="F311">
-        <v>33.51809006200654</v>
+        <v>19.29801725311598</v>
       </c>
       <c r="G311">
-        <v>32.59737980138746</v>
+        <v>19.69173592804316</v>
       </c>
       <c r="H311">
-        <v>30.70770300004838</v>
+        <v>18.37211136138652</v>
       </c>
       <c r="I311">
-        <v>28.7057223544029</v>
+        <v>19.48111885688294</v>
       </c>
       <c r="J311">
-        <v>28.64650247256383</v>
+        <v>20.35459733778044</v>
       </c>
       <c r="K311">
-        <v>29.71572439908008</v>
+        <v>19.42630543078196</v>
       </c>
       <c r="L311">
-        <v>27.16394617460352</v>
+        <v>25.24609240152551</v>
       </c>
       <c r="M311">
-        <v>26.69960594105214</v>
+        <v>23.1918084432747</v>
       </c>
       <c r="N311" t="s">
         <v>37</v>
@@ -13205,43 +15113,43 @@
     </row>
     <row r="312" spans="1:15">
       <c r="A312" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B312">
-        <v>28.23245442855345</v>
+        <v>11.35552259612382</v>
       </c>
       <c r="C312">
-        <v>30.55715661056341</v>
+        <v>15.82335368795682</v>
       </c>
       <c r="D312">
-        <v>28.90063551878062</v>
+        <v>14.19401365502606</v>
       </c>
       <c r="E312">
-        <v>29.29973954416377</v>
+        <v>17.0413363083158</v>
       </c>
       <c r="F312">
-        <v>19.29801725311598</v>
+        <v>13.76308813559346</v>
       </c>
       <c r="G312">
-        <v>19.69173592804316</v>
+        <v>15.62409355201821</v>
       </c>
       <c r="H312">
-        <v>18.37211136138652</v>
+        <v>15.50735521258862</v>
       </c>
       <c r="I312">
-        <v>19.48111885688294</v>
+        <v>14.8553392953509</v>
       </c>
       <c r="J312">
-        <v>20.35459733778044</v>
+        <v>16.35954946486131</v>
       </c>
       <c r="K312">
-        <v>19.42630543078196</v>
+        <v>16.34349780722274</v>
       </c>
       <c r="L312">
-        <v>25.24609240152551</v>
+        <v>14.90895547196371</v>
       </c>
       <c r="M312">
-        <v>23.1918084432747</v>
+        <v>14.36327217405291</v>
       </c>
       <c r="N312" t="s">
         <v>37</v>
@@ -13252,43 +15160,43 @@
     </row>
     <row r="313" spans="1:15">
       <c r="A313" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B313">
-        <v>11.35552259612382</v>
+        <v>9.281042513234883</v>
       </c>
       <c r="C313">
-        <v>15.82335368795682</v>
+        <v>8.723258986244453</v>
       </c>
       <c r="D313">
-        <v>14.19401365502606</v>
+        <v>6.4492017814455</v>
       </c>
       <c r="E313">
-        <v>17.0413363083158</v>
+        <v>7.670755400345813</v>
       </c>
       <c r="F313">
-        <v>13.76308813559346</v>
+        <v>6.618406541067405</v>
       </c>
       <c r="G313">
-        <v>15.62409355201821</v>
+        <v>6.115453708877464</v>
       </c>
       <c r="H313">
-        <v>15.50735521258862</v>
+        <v>5.928547613435519</v>
       </c>
       <c r="I313">
-        <v>14.8553392953509</v>
+        <v>5.274397737584127</v>
       </c>
       <c r="J313">
-        <v>16.35954946486131</v>
+        <v>5.593694388701453</v>
       </c>
       <c r="K313">
-        <v>16.34349780722274</v>
+        <v>5.218641780206131</v>
       </c>
       <c r="L313">
-        <v>14.90895547196371</v>
+        <v>6.728536035311833</v>
       </c>
       <c r="M313">
-        <v>14.36327217405291</v>
+        <v>5.731710626451079</v>
       </c>
       <c r="N313" t="s">
         <v>37</v>
@@ -13299,43 +15207,43 @@
     </row>
     <row r="314" spans="1:15">
       <c r="A314" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B314">
-        <v>9.281042513234883</v>
+        <v>15.3265642027353</v>
       </c>
       <c r="C314">
-        <v>8.723258986244453</v>
+        <v>13.61176931765492</v>
       </c>
       <c r="D314">
-        <v>6.4492017814455</v>
+        <v>11.36327453490668</v>
       </c>
       <c r="E314">
-        <v>7.670755400345813</v>
+        <v>12.16215956862924</v>
       </c>
       <c r="F314">
-        <v>6.618406541067405</v>
+        <v>10.95085679011962</v>
       </c>
       <c r="G314">
-        <v>6.115453708877464</v>
+        <v>10.564639096142</v>
       </c>
       <c r="H314">
-        <v>5.928547613435519</v>
+        <v>10.41492691504944</v>
       </c>
       <c r="I314">
-        <v>5.274397737584127</v>
+        <v>9.722244143176015</v>
       </c>
       <c r="J314">
-        <v>5.593694388701453</v>
+        <v>10.72282725467195</v>
       </c>
       <c r="K314">
-        <v>5.218641780206131</v>
+        <v>10.5572356221629</v>
       </c>
       <c r="L314">
-        <v>6.728536035311833</v>
+        <v>10.79318038009595</v>
       </c>
       <c r="M314">
-        <v>5.731710626451079</v>
+        <v>10.56061769416927</v>
       </c>
       <c r="N314" t="s">
         <v>37</v>
@@ -13346,43 +15254,43 @@
     </row>
     <row r="315" spans="1:15">
       <c r="A315" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B315">
-        <v>15.3265642027353</v>
+        <v>32.22158984863099</v>
       </c>
       <c r="C315">
-        <v>13.61176931765492</v>
+        <v>24.81250034046461</v>
       </c>
       <c r="D315">
-        <v>11.36327453490668</v>
+        <v>20.57318470708131</v>
       </c>
       <c r="E315">
-        <v>12.16215956862924</v>
+        <v>23.74763162475703</v>
       </c>
       <c r="F315">
-        <v>10.95085679011962</v>
+        <v>22.13293457546088</v>
       </c>
       <c r="G315">
-        <v>10.564639096142</v>
+        <v>21.08075098224529</v>
       </c>
       <c r="H315">
-        <v>10.41492691504944</v>
+        <v>20.0143733068039</v>
       </c>
       <c r="I315">
-        <v>9.722244143176015</v>
+        <v>17.18205832807369</v>
       </c>
       <c r="J315">
-        <v>10.72282725467195</v>
+        <v>17.06691593801705</v>
       </c>
       <c r="K315">
-        <v>10.5572356221629</v>
+        <v>13.28490176219855</v>
       </c>
       <c r="L315">
-        <v>10.79318038009595</v>
+        <v>14.65964836476735</v>
       </c>
       <c r="M315">
-        <v>10.56061769416927</v>
+        <v>10.31677407361645</v>
       </c>
       <c r="N315" t="s">
         <v>37</v>
@@ -13393,43 +15301,43 @@
     </row>
     <row r="316" spans="1:15">
       <c r="A316" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B316">
-        <v>32.22158984863099</v>
+        <v>23.83639512949799</v>
       </c>
       <c r="C316">
-        <v>24.81250034046461</v>
+        <v>22.37096298422573</v>
       </c>
       <c r="D316">
-        <v>20.57318470708131</v>
+        <v>18.40820693780621</v>
       </c>
       <c r="E316">
-        <v>23.74763162475703</v>
+        <v>20.35058270641875</v>
       </c>
       <c r="F316">
-        <v>22.13293457546088</v>
+        <v>16.98176113604243</v>
       </c>
       <c r="G316">
-        <v>21.08075098224529</v>
+        <v>17.84759285617081</v>
       </c>
       <c r="H316">
-        <v>20.0143733068039</v>
+        <v>15.6879782655085</v>
       </c>
       <c r="I316">
-        <v>17.18205832807369</v>
+        <v>12.0085690202327</v>
       </c>
       <c r="J316">
-        <v>17.06691593801705</v>
+        <v>14.25028608849308</v>
       </c>
       <c r="K316">
-        <v>13.28490176219855</v>
+        <v>17.68547908935076</v>
       </c>
       <c r="L316">
-        <v>14.65964836476735</v>
+        <v>19.65795455558253</v>
       </c>
       <c r="M316">
-        <v>10.31677407361645</v>
+        <v>9.359824377219988</v>
       </c>
       <c r="N316" t="s">
         <v>37</v>
@@ -13440,43 +15348,43 @@
     </row>
     <row r="317" spans="1:15">
       <c r="A317" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B317">
-        <v>23.83639512949799</v>
+        <v>30.49415869918127</v>
       </c>
       <c r="C317">
-        <v>22.37096298422573</v>
+        <v>28.08768410406207</v>
       </c>
       <c r="D317">
-        <v>18.40820693780621</v>
+        <v>26.05356916666389</v>
       </c>
       <c r="E317">
-        <v>20.35058270641875</v>
+        <v>29.25526161984107</v>
       </c>
       <c r="F317">
-        <v>16.98176113604243</v>
+        <v>27.65039051077032</v>
       </c>
       <c r="G317">
-        <v>17.84759285617081</v>
+        <v>28.27899622800535</v>
       </c>
       <c r="H317">
-        <v>15.6879782655085</v>
+        <v>27.18290616846614</v>
       </c>
       <c r="I317">
-        <v>12.0085690202327</v>
+        <v>24.17160436574332</v>
       </c>
       <c r="J317">
-        <v>14.25028608849308</v>
+        <v>28.86683877737786</v>
       </c>
       <c r="K317">
-        <v>17.68547908935076</v>
+        <v>26.38194180377099</v>
       </c>
       <c r="L317">
-        <v>19.65795455558253</v>
+        <v>27.88004730597791</v>
       </c>
       <c r="M317">
-        <v>9.359824377219988</v>
+        <v>26.94982223924545</v>
       </c>
       <c r="N317" t="s">
         <v>37</v>
@@ -13487,43 +15395,43 @@
     </row>
     <row r="318" spans="1:15">
       <c r="A318" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B318">
-        <v>30.49415869918127</v>
+        <v>9.462477942724338</v>
       </c>
       <c r="C318">
-        <v>28.08768410406207</v>
+        <v>10.77979184473383</v>
       </c>
       <c r="D318">
-        <v>26.05356916666389</v>
+        <v>8.93741900577729</v>
       </c>
       <c r="E318">
-        <v>29.25526161984107</v>
+        <v>11.88366872923579</v>
       </c>
       <c r="F318">
-        <v>27.65039051077032</v>
+        <v>11.29599503157966</v>
       </c>
       <c r="G318">
-        <v>28.27899622800535</v>
+        <v>13.12294386061474</v>
       </c>
       <c r="H318">
-        <v>27.18290616846614</v>
+        <v>11.11869985815456</v>
       </c>
       <c r="I318">
-        <v>24.17160436574332</v>
+        <v>9.268134073155347</v>
       </c>
       <c r="J318">
-        <v>28.86683877737786</v>
+        <v>8.027325851328458</v>
       </c>
       <c r="K318">
-        <v>26.38194180377099</v>
+        <v>6.455559185692707</v>
       </c>
       <c r="L318">
-        <v>27.88004730597791</v>
+        <v>9.356280530875763</v>
       </c>
       <c r="M318">
-        <v>26.94982223924545</v>
+        <v>1.855798529295139</v>
       </c>
       <c r="N318" t="s">
         <v>37</v>
@@ -13534,43 +15442,43 @@
     </row>
     <row r="319" spans="1:15">
       <c r="A319" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B319">
-        <v>9.462477942724338</v>
+        <v>6.107063963844194</v>
       </c>
       <c r="C319">
-        <v>10.77979184473383</v>
+        <v>8.414566022866389</v>
       </c>
       <c r="D319">
-        <v>8.93741900577729</v>
+        <v>5.785965949042217</v>
       </c>
       <c r="E319">
-        <v>11.88366872923579</v>
+        <v>6.574861830589312</v>
       </c>
       <c r="F319">
-        <v>11.29599503157966</v>
+        <v>7.436090940568572</v>
       </c>
       <c r="G319">
-        <v>13.12294386061474</v>
+        <v>5.921752407581399</v>
       </c>
       <c r="H319">
-        <v>11.11869985815456</v>
+        <v>10.31304215874874</v>
       </c>
       <c r="I319">
-        <v>9.268134073155347</v>
+        <v>6.713256545605153</v>
       </c>
       <c r="J319">
-        <v>8.027325851328458</v>
+        <v>8.248252967339996</v>
       </c>
       <c r="K319">
-        <v>6.455559185692707</v>
+        <v>9.254448449387507</v>
       </c>
       <c r="L319">
-        <v>9.356280530875763</v>
+        <v>8.91859079605733</v>
       </c>
       <c r="M319">
-        <v>1.855798529295139</v>
+        <v>8.16350400864674</v>
       </c>
       <c r="N319" t="s">
         <v>37</v>
@@ -13581,43 +15489,43 @@
     </row>
     <row r="320" spans="1:15">
       <c r="A320" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B320">
-        <v>6.107063963844194</v>
+        <v>16.11998721571252</v>
       </c>
       <c r="C320">
-        <v>8.414566022866389</v>
+        <v>17.116593344552</v>
       </c>
       <c r="D320">
-        <v>5.785965949042217</v>
+        <v>12.17800664560164</v>
       </c>
       <c r="E320">
-        <v>6.574861830589312</v>
+        <v>16.06968506374173</v>
       </c>
       <c r="F320">
-        <v>7.436090940568572</v>
+        <v>14.84719417328095</v>
       </c>
       <c r="G320">
-        <v>5.921752407581399</v>
+        <v>14.7875314590457</v>
       </c>
       <c r="H320">
-        <v>10.31304215874874</v>
+        <v>14.46749600267959</v>
       </c>
       <c r="I320">
-        <v>6.713256545605153</v>
+        <v>12.52684258682865</v>
       </c>
       <c r="J320">
-        <v>8.248252967339996</v>
+        <v>12.11535121766171</v>
       </c>
       <c r="K320">
-        <v>9.254448449387507</v>
+        <v>12.70371057181818</v>
       </c>
       <c r="L320">
-        <v>8.91859079605733</v>
+        <v>15.62702792781302</v>
       </c>
       <c r="M320">
-        <v>8.16350400864674</v>
+        <v>14.30152652190199</v>
       </c>
       <c r="N320" t="s">
         <v>37</v>
@@ -13628,43 +15536,43 @@
     </row>
     <row r="321" spans="1:15">
       <c r="A321" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B321">
-        <v>16.11998721571252</v>
+        <v>24.74994107614807</v>
       </c>
       <c r="C321">
-        <v>17.116593344552</v>
+        <v>23.95333259633085</v>
       </c>
       <c r="D321">
-        <v>12.17800664560164</v>
+        <v>18.29812249691889</v>
       </c>
       <c r="E321">
-        <v>16.06968506374173</v>
+        <v>19.79509957529269</v>
       </c>
       <c r="F321">
-        <v>14.84719417328095</v>
+        <v>18.19300323453419</v>
       </c>
       <c r="G321">
-        <v>14.7875314590457</v>
+        <v>16.69583111018046</v>
       </c>
       <c r="H321">
-        <v>14.46749600267959</v>
+        <v>16.19548120430726</v>
       </c>
       <c r="I321">
-        <v>12.52684258682865</v>
+        <v>13.39996088145885</v>
       </c>
       <c r="J321">
-        <v>12.11535121766171</v>
+        <v>14.51513963010496</v>
       </c>
       <c r="K321">
-        <v>12.70371057181818</v>
+        <v>11.38513532716946</v>
       </c>
       <c r="L321">
-        <v>15.62702792781302</v>
+        <v>10.0808860108802</v>
       </c>
       <c r="M321">
-        <v>14.30152652190199</v>
+        <v>16.67078819333818</v>
       </c>
       <c r="N321" t="s">
         <v>37</v>
@@ -13675,43 +15583,43 @@
     </row>
     <row r="322" spans="1:15">
       <c r="A322" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B322">
-        <v>24.74994107614807</v>
+        <v>30.41656811260734</v>
       </c>
       <c r="C322">
-        <v>23.95333259633085</v>
+        <v>28.70431266736974</v>
       </c>
       <c r="D322">
-        <v>18.29812249691889</v>
+        <v>20.48884864497141</v>
       </c>
       <c r="E322">
-        <v>19.79509957529269</v>
+        <v>28.31487063310816</v>
       </c>
       <c r="F322">
-        <v>18.19300323453419</v>
+        <v>26.72502675029864</v>
       </c>
       <c r="G322">
-        <v>16.69583111018046</v>
+        <v>24.59332873638893</v>
       </c>
       <c r="H322">
-        <v>16.19548120430726</v>
+        <v>25.90717114632228</v>
       </c>
       <c r="I322">
-        <v>13.39996088145885</v>
+        <v>22.16141745061524</v>
       </c>
       <c r="J322">
-        <v>14.51513963010496</v>
+        <v>24.0826766063607</v>
       </c>
       <c r="K322">
-        <v>11.38513532716946</v>
+        <v>24.30024275366469</v>
       </c>
       <c r="L322">
-        <v>10.0808860108802</v>
+        <v>27.10769171176254</v>
       </c>
       <c r="M322">
-        <v>16.67078819333818</v>
+        <v>27.21500888036309</v>
       </c>
       <c r="N322" t="s">
         <v>37</v>
@@ -13722,43 +15630,43 @@
     </row>
     <row r="323" spans="1:15">
       <c r="A323" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B323">
-        <v>30.41656811260734</v>
+        <v>16.95549763430109</v>
       </c>
       <c r="C323">
-        <v>28.70431266736974</v>
+        <v>13.28908559851504</v>
       </c>
       <c r="D323">
-        <v>20.48884864497141</v>
+        <v>14.16770931532116</v>
       </c>
       <c r="E323">
-        <v>28.31487063310816</v>
+        <v>15.39022117635285</v>
       </c>
       <c r="F323">
-        <v>26.72502675029864</v>
+        <v>13.23179108008075</v>
       </c>
       <c r="G323">
-        <v>24.59332873638893</v>
+        <v>13.9315566126329</v>
       </c>
       <c r="H323">
-        <v>25.90717114632228</v>
+        <v>12.55880479672975</v>
       </c>
       <c r="I323">
-        <v>22.16141745061524</v>
+        <v>13.82982220098627</v>
       </c>
       <c r="J323">
-        <v>24.0826766063607</v>
+        <v>13.64780755276071</v>
       </c>
       <c r="K323">
-        <v>24.30024275366469</v>
+        <v>15.7323470027458</v>
       </c>
       <c r="L323">
-        <v>27.10769171176254</v>
+        <v>25.02004966250843</v>
       </c>
       <c r="M323">
-        <v>27.21500888036309</v>
+        <v>9.987542971083837</v>
       </c>
       <c r="N323" t="s">
         <v>37</v>
@@ -13769,43 +15677,43 @@
     </row>
     <row r="324" spans="1:15">
       <c r="A324" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B324">
-        <v>16.95549763430109</v>
+        <v>16.45554893819193</v>
       </c>
       <c r="C324">
-        <v>13.28908559851504</v>
+        <v>17.04921544424729</v>
       </c>
       <c r="D324">
-        <v>14.16770931532116</v>
+        <v>9.414096764044336</v>
       </c>
       <c r="E324">
-        <v>15.39022117635285</v>
+        <v>13.7391111573682</v>
       </c>
       <c r="F324">
-        <v>13.23179108008075</v>
+        <v>11.7999694302865</v>
       </c>
       <c r="G324">
-        <v>13.9315566126329</v>
+        <v>10.73063198893439</v>
       </c>
       <c r="H324">
-        <v>12.55880479672975</v>
+        <v>11.37281163114324</v>
       </c>
       <c r="I324">
-        <v>13.82982220098627</v>
+        <v>9.768257023179489</v>
       </c>
       <c r="J324">
-        <v>13.64780755276071</v>
+        <v>12.40196840470867</v>
       </c>
       <c r="K324">
-        <v>15.7323470027458</v>
+        <v>10.38197015152143</v>
       </c>
       <c r="L324">
-        <v>25.02004966250843</v>
+        <v>11.76039659702093</v>
       </c>
       <c r="M324">
-        <v>9.987542971083837</v>
+        <v>11.43832575601602</v>
       </c>
       <c r="N324" t="s">
         <v>37</v>
@@ -13816,46 +15724,46 @@
     </row>
     <row r="325" spans="1:15">
       <c r="A325" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B325">
-        <v>16.45554893819193</v>
+        <v>227.2982323024836</v>
       </c>
       <c r="C325">
-        <v>17.04921544424729</v>
+        <v>266.9052501715348</v>
       </c>
       <c r="D325">
-        <v>9.414096764044336</v>
+        <v>371.4863104770764</v>
       </c>
       <c r="E325">
-        <v>13.7391111573682</v>
+        <v>373.4783156662081</v>
       </c>
       <c r="F325">
-        <v>11.7999694302865</v>
+        <v>441.9201456810283</v>
       </c>
       <c r="G325">
-        <v>10.73063198893439</v>
+        <v>438.1428182120954</v>
       </c>
       <c r="H325">
-        <v>11.37281163114324</v>
+        <v>448.7163854410396</v>
       </c>
       <c r="I325">
-        <v>9.768257023179489</v>
+        <v>436.3782969703478</v>
       </c>
       <c r="J325">
-        <v>12.40196840470867</v>
+        <v>398.1068556069718</v>
       </c>
       <c r="K325">
-        <v>10.38197015152143</v>
+        <v>423.4432931657407</v>
       </c>
       <c r="L325">
-        <v>11.76039659702093</v>
+        <v>411.7907658070756</v>
       </c>
       <c r="M325">
-        <v>11.43832575601602</v>
+        <v>437.4163653590723</v>
       </c>
       <c r="N325" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O325" t="s">
         <v>39</v>
@@ -13863,43 +15771,43 @@
     </row>
     <row r="326" spans="1:15">
       <c r="A326" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B326">
-        <v>221.5066778409227</v>
+        <v>91.68994358633586</v>
       </c>
       <c r="C326">
-        <v>238.412971725637</v>
+        <v>98.14104932075888</v>
       </c>
       <c r="D326">
-        <v>287.8350556207218</v>
+        <v>107.7885643895755</v>
       </c>
       <c r="E326">
-        <v>281.7634602472744</v>
+        <v>117.0549829039966</v>
       </c>
       <c r="F326">
-        <v>338.5169645863911</v>
+        <v>168.1274789659181</v>
       </c>
       <c r="G326">
-        <v>358.9756342766175</v>
+        <v>222.7193750305423</v>
       </c>
       <c r="H326">
-        <v>380.9654404173958</v>
+        <v>270.993790687722</v>
       </c>
       <c r="I326">
-        <v>432.3606943239868</v>
+        <v>323.0669857587861</v>
       </c>
       <c r="J326">
-        <v>421.949857135119</v>
+        <v>313.5688876162968</v>
       </c>
       <c r="K326">
-        <v>434.5585821212202</v>
+        <v>304.3818112801926</v>
       </c>
       <c r="L326">
-        <v>421.2570472440943</v>
+        <v>288.1061824631203</v>
       </c>
       <c r="M326">
-        <v>459.4422868286355</v>
+        <v>257.1463599961749</v>
       </c>
       <c r="N326" t="s">
         <v>38</v>
@@ -13910,43 +15818,43 @@
     </row>
     <row r="327" spans="1:15">
       <c r="A327" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B327">
-        <v>227.2982323024836</v>
+        <v>116.6026112194056</v>
       </c>
       <c r="C327">
-        <v>266.9052501715348</v>
+        <v>130.9025089105855</v>
       </c>
       <c r="D327">
-        <v>371.4863104770764</v>
+        <v>155.9795061880535</v>
       </c>
       <c r="E327">
-        <v>373.4783156662081</v>
+        <v>160.5391012354936</v>
       </c>
       <c r="F327">
-        <v>441.9201456810283</v>
+        <v>184.9404755012124</v>
       </c>
       <c r="G327">
-        <v>438.1428182120954</v>
+        <v>191.3582295811102</v>
       </c>
       <c r="H327">
-        <v>448.7163854410396</v>
+        <v>207.5844414701502</v>
       </c>
       <c r="I327">
-        <v>436.3782969703478</v>
+        <v>224.6102889642854</v>
       </c>
       <c r="J327">
-        <v>398.1068556069718</v>
+        <v>228.2253635157619</v>
       </c>
       <c r="K327">
-        <v>423.4432931657407</v>
+        <v>223.1087409975926</v>
       </c>
       <c r="L327">
-        <v>411.7907658070756</v>
+        <v>243.4238471419727</v>
       </c>
       <c r="M327">
-        <v>437.4163653590723</v>
+        <v>249.8567961041394</v>
       </c>
       <c r="N327" t="s">
         <v>38</v>
@@ -13957,43 +15865,43 @@
     </row>
     <row r="328" spans="1:15">
       <c r="A328" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B328">
-        <v>91.68994358633586</v>
+        <v>243.2956793997347</v>
       </c>
       <c r="C328">
-        <v>98.14104932075888</v>
+        <v>209.7698215887902</v>
       </c>
       <c r="D328">
-        <v>107.7885643895755</v>
+        <v>205.4078821403892</v>
       </c>
       <c r="E328">
-        <v>117.0549829039966</v>
+        <v>200.3100666163459</v>
       </c>
       <c r="F328">
-        <v>168.1274789659181</v>
+        <v>328.177990704031</v>
       </c>
       <c r="G328">
-        <v>222.7193750305423</v>
+        <v>321.6507936343563</v>
       </c>
       <c r="H328">
-        <v>270.993790687722</v>
+        <v>358.0692889266703</v>
       </c>
       <c r="I328">
-        <v>323.0669857587861</v>
+        <v>352.4261935091162</v>
       </c>
       <c r="J328">
-        <v>313.5688876162968</v>
+        <v>350.8410224542883</v>
       </c>
       <c r="K328">
-        <v>304.3818112801926</v>
+        <v>402.8101198443924</v>
       </c>
       <c r="L328">
-        <v>288.1061824631203</v>
+        <v>304.5365966996935</v>
       </c>
       <c r="M328">
-        <v>257.1463599961749</v>
+        <v>333.554463711664</v>
       </c>
       <c r="N328" t="s">
         <v>38</v>
@@ -14004,43 +15912,43 @@
     </row>
     <row r="329" spans="1:15">
       <c r="A329" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B329">
-        <v>116.6026112194056</v>
+        <v>345.882439486775</v>
       </c>
       <c r="C329">
-        <v>130.9025089105855</v>
+        <v>265.0547630536677</v>
       </c>
       <c r="D329">
-        <v>155.9795061880535</v>
+        <v>346.3834024635763</v>
       </c>
       <c r="E329">
-        <v>160.5391012354936</v>
+        <v>283.689184493834</v>
       </c>
       <c r="F329">
-        <v>184.9404755012124</v>
+        <v>389.6745102750338</v>
       </c>
       <c r="G329">
-        <v>191.3582295811102</v>
+        <v>359.6392537068895</v>
       </c>
       <c r="H329">
-        <v>207.5844414701502</v>
+        <v>383.0310897846377</v>
       </c>
       <c r="I329">
-        <v>224.6102889642854</v>
+        <v>421.3935858831254</v>
       </c>
       <c r="J329">
-        <v>228.2253635157619</v>
+        <v>409.2943108375447</v>
       </c>
       <c r="K329">
-        <v>223.1087409975926</v>
+        <v>409.5798951780276</v>
       </c>
       <c r="L329">
-        <v>243.4238471419727</v>
+        <v>470.4847019675699</v>
       </c>
       <c r="M329">
-        <v>249.8567961041394</v>
+        <v>498.5405693423185</v>
       </c>
       <c r="N329" t="s">
         <v>38</v>
@@ -14051,43 +15959,43 @@
     </row>
     <row r="330" spans="1:15">
       <c r="A330" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B330">
-        <v>243.2956793997347</v>
+        <v>785.7662211356281</v>
       </c>
       <c r="C330">
-        <v>209.7698215887902</v>
+        <v>833.8497670721813</v>
       </c>
       <c r="D330">
-        <v>205.4078821403892</v>
+        <v>1158.780432238825</v>
       </c>
       <c r="E330">
-        <v>200.3100666163459</v>
+        <v>977.4289406292851</v>
       </c>
       <c r="F330">
-        <v>328.177990704031</v>
+        <v>1163.120996196428</v>
       </c>
       <c r="G330">
-        <v>321.6507936343563</v>
+        <v>1267.692928802032</v>
       </c>
       <c r="H330">
-        <v>358.0692889266703</v>
+        <v>1331.248519359862</v>
       </c>
       <c r="I330">
-        <v>352.4261935091162</v>
+        <v>1522.066786699943</v>
       </c>
       <c r="J330">
-        <v>350.8410224542883</v>
+        <v>1454.714580366348</v>
       </c>
       <c r="K330">
-        <v>402.8101198443924</v>
+        <v>1571.327484368605</v>
       </c>
       <c r="L330">
-        <v>304.5365966996935</v>
+        <v>1193.511171720537</v>
       </c>
       <c r="M330">
-        <v>333.554463711664</v>
+        <v>1401.353883063181</v>
       </c>
       <c r="N330" t="s">
         <v>38</v>
@@ -14098,43 +16006,43 @@
     </row>
     <row r="331" spans="1:15">
       <c r="A331" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B331">
-        <v>345.882439486775</v>
+        <v>418.0564037029241</v>
       </c>
       <c r="C331">
-        <v>265.0547630536677</v>
+        <v>479.6731318487524</v>
       </c>
       <c r="D331">
-        <v>346.3834024635763</v>
+        <v>599.0103038099702</v>
       </c>
       <c r="E331">
-        <v>283.689184493834</v>
+        <v>559.3756504898871</v>
       </c>
       <c r="F331">
-        <v>389.6745102750338</v>
+        <v>644.3392335890741</v>
       </c>
       <c r="G331">
-        <v>359.6392537068895</v>
+        <v>678.5493349991808</v>
       </c>
       <c r="H331">
-        <v>383.0310897846377</v>
+        <v>698.3004782815917</v>
       </c>
       <c r="I331">
-        <v>421.3935858831254</v>
+        <v>749.8364046715034</v>
       </c>
       <c r="J331">
-        <v>409.2943108375447</v>
+        <v>684.8584840048158</v>
       </c>
       <c r="K331">
-        <v>409.5798951780276</v>
+        <v>693.6471985655837</v>
       </c>
       <c r="L331">
-        <v>470.4847019675699</v>
+        <v>678.8023768970031</v>
       </c>
       <c r="M331">
-        <v>498.5405693423185</v>
+        <v>703.506771141061</v>
       </c>
       <c r="N331" t="s">
         <v>38</v>
@@ -14145,43 +16053,43 @@
     </row>
     <row r="332" spans="1:15">
       <c r="A332" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B332">
-        <v>785.7662211356281</v>
+        <v>167.8316029719091</v>
       </c>
       <c r="C332">
-        <v>833.8497670721813</v>
+        <v>219.3300969871605</v>
       </c>
       <c r="D332">
-        <v>1158.780432238825</v>
+        <v>286.4233993318622</v>
       </c>
       <c r="E332">
-        <v>977.4289406292851</v>
+        <v>244.97997735445</v>
       </c>
       <c r="F332">
-        <v>1163.120996196428</v>
+        <v>270.955873494921</v>
       </c>
       <c r="G332">
-        <v>1267.692928802032</v>
+        <v>285.8912608146165</v>
       </c>
       <c r="H332">
-        <v>1331.248519359862</v>
+        <v>312.8707976520682</v>
       </c>
       <c r="I332">
-        <v>1522.066786699943</v>
+        <v>388.6046681285985</v>
       </c>
       <c r="J332">
-        <v>1454.714580366348</v>
+        <v>391.0977102585396</v>
       </c>
       <c r="K332">
-        <v>1571.327484368605</v>
+        <v>611.5130189552549</v>
       </c>
       <c r="L332">
-        <v>1193.511171720537</v>
+        <v>569.9719868377302</v>
       </c>
       <c r="M332">
-        <v>1401.353883063181</v>
+        <v>885.2117356959166</v>
       </c>
       <c r="N332" t="s">
         <v>38</v>
@@ -14192,43 +16100,43 @@
     </row>
     <row r="333" spans="1:15">
       <c r="A333" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B333">
-        <v>418.0564037029241</v>
+        <v>229.5737165515053</v>
       </c>
       <c r="C333">
-        <v>479.6731318487524</v>
+        <v>250.4825174499513</v>
       </c>
       <c r="D333">
-        <v>599.0103038099702</v>
+        <v>322.1186996952607</v>
       </c>
       <c r="E333">
-        <v>559.3756504898871</v>
+        <v>291.893217501569</v>
       </c>
       <c r="F333">
-        <v>644.3392335890741</v>
+        <v>373.2678682887612</v>
       </c>
       <c r="G333">
-        <v>678.5493349991808</v>
+        <v>375.2287574828839</v>
       </c>
       <c r="H333">
-        <v>698.3004782815917</v>
+        <v>445.9343194315115</v>
       </c>
       <c r="I333">
-        <v>749.8364046715034</v>
+        <v>629.4407371364667</v>
       </c>
       <c r="J333">
-        <v>684.8584840048158</v>
+        <v>549.6365284192318</v>
       </c>
       <c r="K333">
-        <v>693.6471985655837</v>
+        <v>476.7844158145588</v>
       </c>
       <c r="L333">
-        <v>678.8023768970031</v>
+        <v>417.9895361860478</v>
       </c>
       <c r="M333">
-        <v>703.506771141061</v>
+        <v>946.6729840516854</v>
       </c>
       <c r="N333" t="s">
         <v>38</v>
@@ -14239,43 +16147,43 @@
     </row>
     <row r="334" spans="1:15">
       <c r="A334" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B334">
-        <v>167.8316029719091</v>
+        <v>153.7105484570091</v>
       </c>
       <c r="C334">
-        <v>219.3300969871605</v>
+        <v>166.4176591201614</v>
       </c>
       <c r="D334">
-        <v>286.4233993318622</v>
+        <v>197.6024135885929</v>
       </c>
       <c r="E334">
-        <v>244.97997735445</v>
+        <v>158.0816533421479</v>
       </c>
       <c r="F334">
-        <v>270.955873494921</v>
+        <v>173.3190109841976</v>
       </c>
       <c r="G334">
-        <v>285.8912608146165</v>
+        <v>173.7143769748592</v>
       </c>
       <c r="H334">
-        <v>312.8707976520682</v>
+        <v>207.4550528044269</v>
       </c>
       <c r="I334">
-        <v>388.6046681285985</v>
+        <v>253.6318783410166</v>
       </c>
       <c r="J334">
-        <v>391.0977102585396</v>
+        <v>205.0212172920725</v>
       </c>
       <c r="K334">
-        <v>611.5130189552549</v>
+        <v>234.1167131303633</v>
       </c>
       <c r="L334">
-        <v>569.9719868377302</v>
+        <v>210.6687098021953</v>
       </c>
       <c r="M334">
-        <v>885.2117356959166</v>
+        <v>216.0517457601637</v>
       </c>
       <c r="N334" t="s">
         <v>38</v>
@@ -14286,43 +16194,43 @@
     </row>
     <row r="335" spans="1:15">
       <c r="A335" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B335">
-        <v>229.5737165515053</v>
+        <v>557.2305245517628</v>
       </c>
       <c r="C335">
-        <v>250.4825174499513</v>
+        <v>441.7084241927188</v>
       </c>
       <c r="D335">
-        <v>322.1186996952607</v>
+        <v>587.2830020977816</v>
       </c>
       <c r="E335">
-        <v>291.893217501569</v>
+        <v>441.2345041450551</v>
       </c>
       <c r="F335">
-        <v>373.2678682887612</v>
+        <v>504.3278867917527</v>
       </c>
       <c r="G335">
-        <v>375.2287574828839</v>
+        <v>429.4740569638287</v>
       </c>
       <c r="H335">
-        <v>445.9343194315115</v>
+        <v>546.3424758895566</v>
       </c>
       <c r="I335">
-        <v>629.4407371364667</v>
+        <v>718.4086354899001</v>
       </c>
       <c r="J335">
-        <v>549.6365284192318</v>
+        <v>893.9075458647103</v>
       </c>
       <c r="K335">
-        <v>476.7844158145588</v>
+        <v>1208.083872839595</v>
       </c>
       <c r="L335">
-        <v>417.9895361860478</v>
+        <v>822.1310712153957</v>
       </c>
       <c r="M335">
-        <v>946.6729840516854</v>
+        <v>4618.275264681583</v>
       </c>
       <c r="N335" t="s">
         <v>38</v>
@@ -14333,43 +16241,43 @@
     </row>
     <row r="336" spans="1:15">
       <c r="A336" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B336">
-        <v>153.7105484570091</v>
+        <v>406.9760463635807</v>
       </c>
       <c r="C336">
-        <v>166.4176591201614</v>
+        <v>296.968536329336</v>
       </c>
       <c r="D336">
-        <v>197.6024135885929</v>
+        <v>456.8725630750623</v>
       </c>
       <c r="E336">
-        <v>158.0816533421479</v>
+        <v>428.453610063387</v>
       </c>
       <c r="F336">
-        <v>173.3190109841976</v>
+        <v>456.325403286445</v>
       </c>
       <c r="G336">
-        <v>173.7143769748592</v>
+        <v>659.0203131009675</v>
       </c>
       <c r="H336">
-        <v>207.4550528044269</v>
+        <v>392.7712713464017</v>
       </c>
       <c r="I336">
-        <v>253.6318783410166</v>
+        <v>664.9416621954078</v>
       </c>
       <c r="J336">
-        <v>205.0212172920725</v>
+        <v>582.9899358764485</v>
       </c>
       <c r="K336">
-        <v>234.1167131303633</v>
+        <v>564.7115333147233</v>
       </c>
       <c r="L336">
-        <v>210.6687098021953</v>
+        <v>592.9715005835308</v>
       </c>
       <c r="M336">
-        <v>216.0517457601637</v>
+        <v>703.7324628068899</v>
       </c>
       <c r="N336" t="s">
         <v>38</v>
@@ -14380,43 +16288,43 @@
     </row>
     <row r="337" spans="1:15">
       <c r="A337" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B337">
-        <v>557.2305245517628</v>
+        <v>400.1711802229759</v>
       </c>
       <c r="C337">
-        <v>441.7084241927188</v>
+        <v>373.8019545852675</v>
       </c>
       <c r="D337">
-        <v>587.2830020977816</v>
+        <v>566.7509934315345</v>
       </c>
       <c r="E337">
-        <v>441.2345041450551</v>
+        <v>418.949026922587</v>
       </c>
       <c r="F337">
-        <v>504.3278867917527</v>
+        <v>483.2547649484952</v>
       </c>
       <c r="G337">
-        <v>429.4740569638287</v>
+        <v>499.5933059208543</v>
       </c>
       <c r="H337">
-        <v>546.3424758895566</v>
+        <v>516.376954784776</v>
       </c>
       <c r="I337">
-        <v>718.4086354899001</v>
+        <v>617.0674847364365</v>
       </c>
       <c r="J337">
-        <v>893.9075458647103</v>
+        <v>663.9331295557776</v>
       </c>
       <c r="K337">
-        <v>1208.083872839595</v>
+        <v>621.6879740780118</v>
       </c>
       <c r="L337">
-        <v>822.1310712153957</v>
+        <v>499.8640791885115</v>
       </c>
       <c r="M337">
-        <v>4618.275264681583</v>
+        <v>558.6985295935916</v>
       </c>
       <c r="N337" t="s">
         <v>38</v>
@@ -14427,43 +16335,43 @@
     </row>
     <row r="338" spans="1:15">
       <c r="A338" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B338">
-        <v>406.9760463635807</v>
+        <v>239.8124775397049</v>
       </c>
       <c r="C338">
-        <v>296.968536329336</v>
+        <v>251.6557204546965</v>
       </c>
       <c r="D338">
-        <v>456.8725630750623</v>
+        <v>340.0662072964775</v>
       </c>
       <c r="E338">
-        <v>428.453610063387</v>
+        <v>318.5625112099644</v>
       </c>
       <c r="F338">
-        <v>456.325403286445</v>
+        <v>368.3583484569949</v>
       </c>
       <c r="G338">
-        <v>659.0203131009675</v>
+        <v>396.9093805616067</v>
       </c>
       <c r="H338">
-        <v>392.7712713464017</v>
+        <v>427.7935573143386</v>
       </c>
       <c r="I338">
-        <v>664.9416621954078</v>
+        <v>561.4814809609692</v>
       </c>
       <c r="J338">
-        <v>582.9899358764485</v>
+        <v>524.5493493643261</v>
       </c>
       <c r="K338">
-        <v>564.7115333147233</v>
+        <v>704.8004864144885</v>
       </c>
       <c r="L338">
-        <v>592.9715005835308</v>
+        <v>828.2656046232009</v>
       </c>
       <c r="M338">
-        <v>703.7324628068899</v>
+        <v>477.9528104006932</v>
       </c>
       <c r="N338" t="s">
         <v>38</v>
@@ -14474,43 +16382,43 @@
     </row>
     <row r="339" spans="1:15">
       <c r="A339" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B339">
-        <v>400.1711802229759</v>
+        <v>163.3533260883422</v>
       </c>
       <c r="C339">
-        <v>373.8019545852675</v>
+        <v>176.5401908262707</v>
       </c>
       <c r="D339">
-        <v>566.7509934315345</v>
+        <v>279.2083770142673</v>
       </c>
       <c r="E339">
-        <v>418.949026922587</v>
+        <v>203.2195267432936</v>
       </c>
       <c r="F339">
-        <v>483.2547649484952</v>
+        <v>229.7215492645636</v>
       </c>
       <c r="G339">
-        <v>499.5933059208543</v>
+        <v>261.0804896730378</v>
       </c>
       <c r="H339">
-        <v>516.376954784776</v>
+        <v>258.1808750880554</v>
       </c>
       <c r="I339">
-        <v>617.0674847364365</v>
+        <v>317.2273220926291</v>
       </c>
       <c r="J339">
-        <v>663.9331295557776</v>
+        <v>298.5580740187878</v>
       </c>
       <c r="K339">
-        <v>621.6879740780118</v>
+        <v>293.1600355545691</v>
       </c>
       <c r="L339">
-        <v>499.8640791885115</v>
+        <v>251.6933899077258</v>
       </c>
       <c r="M339">
-        <v>558.6985295935916</v>
+        <v>252.1571961750096</v>
       </c>
       <c r="N339" t="s">
         <v>38</v>
@@ -14521,43 +16429,43 @@
     </row>
     <row r="340" spans="1:15">
       <c r="A340" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B340">
-        <v>239.8124775397049</v>
+        <v>430.6756166877752</v>
       </c>
       <c r="C340">
-        <v>251.6557204546965</v>
+        <v>494.3480975348106</v>
       </c>
       <c r="D340">
-        <v>340.0662072964775</v>
+        <v>466.632073968064</v>
       </c>
       <c r="E340">
-        <v>318.5625112099644</v>
+        <v>436.9760901489407</v>
       </c>
       <c r="F340">
-        <v>368.3583484569949</v>
+        <v>546.1898318130028</v>
       </c>
       <c r="G340">
-        <v>396.9093805616067</v>
+        <v>509.308969297817</v>
       </c>
       <c r="H340">
-        <v>427.7935573143386</v>
+        <v>587.5019951176359</v>
       </c>
       <c r="I340">
-        <v>561.4814809609692</v>
+        <v>555.7262571787876</v>
       </c>
       <c r="J340">
-        <v>524.5493493643261</v>
+        <v>583.3912943875067</v>
       </c>
       <c r="K340">
-        <v>704.8004864144885</v>
+        <v>531.3481423497708</v>
       </c>
       <c r="L340">
-        <v>828.2656046232009</v>
+        <v>313.7736708642005</v>
       </c>
       <c r="M340">
-        <v>477.9528104006932</v>
+        <v>957.0861977763398</v>
       </c>
       <c r="N340" t="s">
         <v>38</v>
@@ -14568,142 +16476,48 @@
     </row>
     <row r="341" spans="1:15">
       <c r="A341" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B341">
-        <v>163.3533260883422</v>
+        <v>396.7374223712674</v>
       </c>
       <c r="C341">
-        <v>176.5401908262707</v>
+        <v>373.5230153329262</v>
       </c>
       <c r="D341">
-        <v>279.2083770142673</v>
+        <v>735.805087970706</v>
       </c>
       <c r="E341">
-        <v>203.2195267432936</v>
+        <v>509.8888309631631</v>
       </c>
       <c r="F341">
-        <v>229.7215492645636</v>
+        <v>619.6397543967806</v>
       </c>
       <c r="G341">
-        <v>261.0804896730378</v>
+        <v>725.6299168896446</v>
       </c>
       <c r="H341">
-        <v>258.1808750880554</v>
+        <v>697.6508005931507</v>
       </c>
       <c r="I341">
-        <v>317.2273220926291</v>
+        <v>816.5146625892385</v>
       </c>
       <c r="J341">
-        <v>298.5580740187878</v>
+        <v>639.5362230734747</v>
       </c>
       <c r="K341">
-        <v>293.1600355545691</v>
+        <v>784.8188181686164</v>
       </c>
       <c r="L341">
-        <v>251.6933899077258</v>
+        <v>689.1008445474788</v>
       </c>
       <c r="M341">
-        <v>252.1571961750096</v>
+        <v>717.7046653572625</v>
       </c>
       <c r="N341" t="s">
         <v>38</v>
       </c>
       <c r="O341" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="342" spans="1:15">
-      <c r="A342" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B342">
-        <v>430.6756166877752</v>
-      </c>
-      <c r="C342">
-        <v>494.3480975348106</v>
-      </c>
-      <c r="D342">
-        <v>466.632073968064</v>
-      </c>
-      <c r="E342">
-        <v>436.9760901489407</v>
-      </c>
-      <c r="F342">
-        <v>546.1898318130028</v>
-      </c>
-      <c r="G342">
-        <v>509.308969297817</v>
-      </c>
-      <c r="H342">
-        <v>587.5019951176359</v>
-      </c>
-      <c r="I342">
-        <v>555.7262571787876</v>
-      </c>
-      <c r="J342">
-        <v>583.3912943875067</v>
-      </c>
-      <c r="K342">
-        <v>531.3481423497708</v>
-      </c>
-      <c r="L342">
-        <v>313.7736708642005</v>
-      </c>
-      <c r="M342">
-        <v>957.0861977763398</v>
-      </c>
-      <c r="N342" t="s">
-        <v>38</v>
-      </c>
-      <c r="O342" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="343" spans="1:15">
-      <c r="A343" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B343">
-        <v>396.7374223712674</v>
-      </c>
-      <c r="C343">
-        <v>373.5230153329262</v>
-      </c>
-      <c r="D343">
-        <v>735.805087970706</v>
-      </c>
-      <c r="E343">
-        <v>509.8888309631631</v>
-      </c>
-      <c r="F343">
-        <v>619.6397543967806</v>
-      </c>
-      <c r="G343">
-        <v>725.6299168896446</v>
-      </c>
-      <c r="H343">
-        <v>697.6508005931507</v>
-      </c>
-      <c r="I343">
-        <v>816.5146625892385</v>
-      </c>
-      <c r="J343">
-        <v>639.5362230734747</v>
-      </c>
-      <c r="K343">
-        <v>784.8188181686164</v>
-      </c>
-      <c r="L343">
-        <v>689.1008445474788</v>
-      </c>
-      <c r="M343">
-        <v>717.7046653572625</v>
-      </c>
-      <c r="N343" t="s">
-        <v>38</v>
-      </c>
-      <c r="O343" t="s">
         <v>39</v>
       </c>
     </row>
